--- a/data/hotels_by_city/Dallas/Dallas_shard_80.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_80.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="949">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Nicole C</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>John B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r579327218-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
@@ -200,6 +206,9 @@
 Oh, the bed was very comfortable and the room was clean...My husband and I had arrived to our truck at 1:00 am on a Saturday night after a missions trip in El Salvador. I had contracted an illness there and was feeling rotten! After a full day of airports we arrived to find our truck wouldn’t start! Got on my app and booked this room. When we got to the hotel Ruben, the young man at the front desk, informed me that my booking was for the next weekend, yet my app said the booking was for the current Saturday night-ugh! I was running fever and really not up for a fight-didn’t need one! After talking to the 800 customer support service, who couldn’t help me, Ruben figured out how to fix it! I should mention that I prepaid so it is really impossible (almost) to change. Then we couldn’t find our debit card. We only took one, so we would minimize fraud while out of the country. We had last used it in El Salvador! I had booked it on my app, so I used a different debit card that is linked with the app. Ruben saw our panic and said “I’ve got this, go get some rest!” He trusted us! Wow, very refreshing! We’ve been with Choice Privileges for many years and spend many nights a year in their hotels, but this hospitality goes way beyond good!Oh, the bed was very comfortable and the room was clean and well equipped!More</t>
   </si>
   <si>
+    <t>Michael R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r576745227-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -221,6 +230,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Coy J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r576589465-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -239,6 +251,9 @@
     <t>By far and with no exception, this is truly a perfect diamond in the midst of  other comparably priced hotels. My wife and I have stayed in much more expensive hotels that were "nice" but our room at this Comfort Inn was immaculate, BIG and the in-room amenities made the night a lot more pleasant. Consider the refrigerator, the microwave oven, coffee pot plus other standard pleasantries.The hotel staff were extremely beneficial is providing the best care in making our stay as comfortable as possible. The breakfast was much more than "continental", including "real" eggs and bacon. Enough to eat for a platoon.Although close to the airport, the rooms are extremely quite AND the hotel offers a free shuttle to anywhere within 5 miles.Price for our room including taxes and fees &gt; $68.00. The hotel deserves 10 stars. Don't pass this up!!!!More</t>
   </si>
   <si>
+    <t>Joyce C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r574000889-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -257,6 +272,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Raillerie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r568694612-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -276,6 +294,9 @@
   </si>
   <si>
     <t>I had called 3-4 hours before we arrived at dfw and was assured they had a shuttle  that could pick us up once we arrived at the airport. Once we exited the airport and new which door we were at I called to tell the gentleman to send a shuttle. I called for 10 minutes before finally getting an answer. But, the shuttle arrives soon after I spoke with the front desk. Our flight arrived at 12am and we had to be  back at the airport at 7 AM. Once we made it to the hotel and got  checked in we made it to our room. Everything was fine it was comfortable, hotel was quiet, everything was clean. Overall it was what we expected. I don’t understand the negative reviews we had a fine experience with this hotel.  They do need to hire more front desk help for the Night Shift on the weekends.More</t>
+  </si>
+  <si>
+    <t>lilmisstex713</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r561882508-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
@@ -301,6 +322,9 @@
  The room was clean and there was plenty of hot water in the shower and it had great water pressure.  The mattress on the bed in the bedroom wasn't very comfortable and it needs to be replaced.  It was worn down in the middle so anyone sleeping on either side would roll towards the middle.  Like I said, I think the living room had a pullout sofa.  The only downside to someone sleeping on the sofa would be there isn't an a/c unit in that room so it might get a little warm if whoever is sleeping in the bedroom (where the a/c unit is) closes the bedroom door.  In all the two room suites I have ever stayed in there has been an a/c unit in each room if the a/c wasn't central. They do have a ceiling fan in the living room though and there is also this...We stayed at this hotel for an extended weekend (Friday-Monday.) I booked it using Hotwire and got it for $62/night.  We were pleasantly surprised by how nice it was.  We did not expect to get a two room suite but we did. The bedroom had a king sized bed (which we requested since our 3 year old sleeps between us) and TV and the living room had a sofa (I assume pullout but not sure,) a TV and a microwave and a refrigerator.  It was nice having all the space.  The room was clean and there was plenty of hot water in the shower and it had great water pressure.  The mattress on the bed in the bedroom wasn't very comfortable and it needs to be replaced.  It was worn down in the middle so anyone sleeping on either side would roll towards the middle.  Like I said, I think the living room had a pullout sofa.  The only downside to someone sleeping on the sofa would be there isn't an a/c unit in that room so it might get a little warm if whoever is sleeping in the bedroom (where the a/c unit is) closes the bedroom door.  In all the two room suites I have ever stayed in there has been an a/c unit in each room if the a/c wasn't central. They do have a ceiling fan in the living room though and there is also this fan looking thing above the bedroom that allows conditioned air from the bedroom to pass though while still having the bedroom door shut so it might not be too bad.  The breakfast was decent.  They did offer some protein (eggs all three mornings we were there and they alternated between sausage and bacon each morning.)  They also had bagels, fruit, toast, instant oatmeal, yogurt, cold cereal and things of that nature.  They also offer waffles but they only have one waffle iron and I would recommend they get another.  That would cut down on people waiting in line to make waffles.  This hotel is very close to DFW so if you are looking for a hotel that is close to the airport, this one is.  Parking is free and plentiful.  The staff was nice. The wifi in our room was pretty awful though. It kept kicking us off.  I work virtually for a startup (so there are no days off) so a good wifi connection is a big deal for me. I had to use my cell phone's hot spot to connect to the internet if I wanted a consistent and fast wifi connection.  I did use their business center twice to print out attraction tickets and the printer worked.  I note this since I have stayed in a lot of places where the printer in the business center is either out of ink or out of paper...More</t>
   </si>
   <si>
+    <t>choo2drivr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r555287408-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -322,6 +346,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>rxpdkf2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r553341654-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -340,6 +367,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>deeelizabeth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r543514271-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -361,6 +391,9 @@
     <t>We had an overnight layover in DFW coming back from Jamaica.  We were tired and hungry.  We called the hotel and asked for the shuttle to pick us up, we were told about 15 minutes, but the driver was there in 6 minutes!  I can't remember the driver's name, but he was so kind and offered to stop at Whataburger for us so we wouldn't have to wait for pizza delivery.  When we got to the hotel, Chad had already done the paperwork, he literally said to us "Initial here and here, sign here.  You're in room 210.  What time would you like your wake up call?" And we were in our room before our fries even cooled off!  What a great way to treat tired travelers!More</t>
   </si>
   <si>
+    <t>HERMAN C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r539363531-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -376,6 +409,9 @@
     <t>Stayed overnight before Ireland trip.  Near to DFW.  Free shuttle &amp; breakfast.  Clean.  Courteous and helpful staff.  Very comfortable.  Had some trouble printing from Business Center.  Reasonably priced.  Got a delayed checkout with no problems.  Fit what we needed very well for an overnight layover.</t>
   </si>
   <si>
+    <t>KJA64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r538746247-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -397,6 +433,9 @@
     <t>Such a disappointment.  It started with being checked in to an already occupied room.  The staff at both check-in and out were extremely impersonal.  The bathroom wasn't clean, I had to fix the toilet flush, the floor mat had a hole in it and the bathroom door needed a good oiling.  At breakfast there's only 1 waffle machine (and a line of people waiting to use it), the pastry choices were very limited, the "bold coffee" was empty while the "regular" coffee was weak and cold (same for the coffee offered in the evening), and the hot water wasn't hot.  Throw in the airplane noise, and well you get the picture.More</t>
   </si>
   <si>
+    <t>nsiotto</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r536975732-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -415,6 +454,9 @@
     <t>I was with another person. We lost a flight and we needed a place to stay. Since I didn’t have a bad experience at another Comfort Inn in Niagara Falls I thought to book also here. Asked for the airport shuttle and told me within 15 minutes would be there. After 40 minutes (in the freeze outside the terminal) I called and I was told that it would require further 15 to 20 minutes. Decided to get Uber instead. Reached the hotel and checked in. Room has no insulation at the windows therefore plenty of noise from the road. Toilet had no extraction fan.Bed was comfortable though.But if I had to plan another overnight stay I’d search for an alternative. More</t>
   </si>
   <si>
+    <t>Elarroway</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r536019725-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -433,6 +475,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>ford88stu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r526578095-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -448,6 +493,9 @@
     <t>They have a early check out policy. $45.00 P/N. Plus tax. This was not negotiable. Over all it is ok. Better hotels available in the same area. For the same price or lower. So read the calculation policy carefully.</t>
   </si>
   <si>
+    <t>Bekki K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r510981437-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -469,6 +517,9 @@
     <t>We chose this hotel for its price, pool, and location. We were not disappointed by any of those. However, when we first arrived, the carpet in the room was wet and sticky with what smelled like cleaning fluid. Blech. The microwave in the room managed to both burn our popcorn and underpop it, at the same time! The doors do nothing to muffle hallway noise, and the highway noise occasionally makes itself known, too. It's possible I only noticed the noise because I was awake all night with asthma (possibly from the cleaning fluid.) Breakfast was pretty good... lots of choices beyond just cereal and pastries. The front desk people are very helpful, and the beds were comfortable. There are a few rough/worn edges, but I didn't pay the premium for perfection. My kids really enjoyed the pool and the little store area in the lobby selling snacks and ice cream. I would consider staying here again, my biggest problem was the smelly, sticky carpet.More</t>
   </si>
   <si>
+    <t>scott b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r510947212-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -481,6 +532,9 @@
     <t>Manager accused me of smoking in the room twice because the heater was turned on and had horrible smell and room was not cleaned 2 of the 4 days I stayed had to go ask for towels. I doubt manager had any customer service experience</t>
   </si>
   <si>
+    <t>Stephaney M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r501349842-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -502,6 +556,9 @@
     <t>We stayed on our way to Jamaica and upon our return. Both stays went really well. The guy at the front desk, Daniel, was amazing. He made you feel welcome and assisted in any way he could. He even tried his best to get my parents handicapped accessible room close to ours so I could assist. Breakfast was fresh and the area was clean. The only small issue we had is that there wasn't enough room on the shuttle for all 10 of us. Others had booked before we arrived so we had to take a cab. The driver offered to come right back and get us but we opt'd for a cab instead. Overall I would give this hotel a 4 and will stay again. More</t>
   </si>
   <si>
+    <t>M P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r499268669-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -517,6 +574,9 @@
     <t>I came off of a 16-hr international flight and was not functioning at my best. I called Comfort Inn for the airport shuttle. An hour later, it finally came. When I arrived at the hotel, I learned I'd come to the wrong Comfort Inn! Back on the shuttle to the airport to try again... (Comfort Inn south wouldn't send me straight to Comfort Inn north). Don't make my mistake! Room was quiet. Since I was dead tired, I didn't care that the room's windows faced a brick wall.</t>
   </si>
   <si>
+    <t>Israel M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r496975188-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -535,6 +595,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>brvln</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r496421351-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -553,6 +616,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>CincinnatiVictor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r495406638-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -571,6 +637,9 @@
     <t>My wife and I stayed at this hotel the night before departing on an early morning flight from DFW airport. The airport shuttle worked great in both directions. The staff were very gracious and welcoming. The room was clean and quiet and the bed was comfortable. The wifi worked great.When we arrived we were a little concerned when we did not immediately see a lot of restaurants in the area but when we came down for the reception we discovered that was not going to be a problem. The evening reception included salad, mashed potatoes, green beans, pork tenderloin and beef brisket along with wine and beer so after that there was no need for a restaurant. The free breakfast also has a good selection of items.More</t>
   </si>
   <si>
+    <t>Shannon B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r493355103-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -589,6 +658,9 @@
     <t>This is not the prettiest hotel on the block, but the staff was really helpful and energetic (even at my 1AM check-in!) and the bed was really surprisingly comfortable, and again, at 1AM, that's what we need. The breakfast spread was ample, much more than I expected. They take the time to make sure you have everything you could want/need. The neighborhood was very industrial, and the room was dark and appeared a little dingy (really they just need higher watt light bulbs), but the bed was clean, the mattress was new, the pillows were fluffy. I will take a comfortable bed over a corner that's not well-vacuumed any day. (But note to the cleaning crew - do vacuum behind the door that separates the sitting area from the bedroom every once in a while.) The bed is comfortable and the price is right!More</t>
   </si>
   <si>
+    <t>Travler2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r490228034-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -604,6 +676,9 @@
     <t>Stay one night with family. The hotel is clean and comfortable. The free breakfast had good options. The beds were comfortable and the A/C worked well. The bathrooms are small and plain but again they were clean which is real important. It's a good stay and location for people traveling. Will stay again.</t>
   </si>
   <si>
+    <t>Lauren S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r484910603-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -619,6 +694,9 @@
     <t>We arrived very late, were extremely tired and were checked-in in record time -- an appreciated plus!  The next morning, the driver for the free airport shuttle was very helpful and friendly.  The breakfast was great with many options, including some healthy choices.  The room was clean and comfortable.  I will book this hotel again if I'm flying out of DFW.   The only negative was trying to use the computer in the lobby area -- it badly needs replacing.</t>
   </si>
   <si>
+    <t>Uphilldeb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r473002949-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -637,6 +715,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>daeva</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r470440623-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -655,6 +736,9 @@
     <t>A very nice hotel to stay in. We stayed 2 nights and we thoroughly enjoyed our stay. The room was clean, the beds were very comfortable and all the amenities one could need were available in the room. the breakfast was ok, nothing fancy, but better than a boring continental breakfast served in other places. Check-in was fast and easy. The receptionist was professional and accommodating when we needed to check-in early. We didnt try the pool so I can't comment on that. Its also very close to DFW airport. Only con is that its by a highway so try to get a room on the opposite side for lower noise levels.More</t>
   </si>
   <si>
+    <t>Countrynewsman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r469496650-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -673,6 +757,9 @@
     <t>I chose this hotel because of the rate for one night and leaving my car for the week while I fly to the west coast.  I booked in advance on their website and check-in was easy.  The only rooms available for a single person had two double beds.  The room was clean and there was a refrigerator and microwave in the room.  The furnishings were up-to-date and the bed very comfortable.  I left my car at the hotel for a week and when I returned to DFW, I phoned the hotel for a ride.  The driver arrived in just a few minutes and I was in my car in a very short time.  I do recommend this hotel if you need to stay the night before flying out of DFW and need a place to park your car.More</t>
   </si>
   <si>
+    <t>jakeswife</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r467559686-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -691,6 +778,9 @@
     <t>We were held over in D/FW on our way home from Maui due to a blizzard in the NE. Our 7hr flight landed at 6am, we were exhausted. After renting a car and grabbing a few essentials off site, Ashley at the front desk found us a room, literally walked the floors and found one ready for occupation and had us settled by 930am. The room and hotel is clean, though I admit we didn't used many of the facilities. Breakfast is a bump up from the cereal/muffin usual. Waffles, sausage, eggs and many other options available. For us, this was a great option, at a GREAT value, to be stuck for a couple days. Ashley, THANK YOU!!!! More</t>
   </si>
   <si>
+    <t>ludany2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r467189819-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -706,6 +796,9 @@
     <t>We made a stop in Dallas during our trip to Guatemala.Very convenient location (very close to DFW INTL Airport, good breakfast, and enough amenities like TV, microwave, jacuzzi, and fitness center.I'd like to mention the very kind attention we have received from Ashley and Sharone since the very first moment of check in. After a seventeen-hour international journey your attention made us feel as we were home!Continuing our trip we went on a seven-night Caribbean cruise from Galveston and the hotel kindly kept two bags we would not need until our return to Brazil. We came back and spent one last night before our flight from DFW. This attention is not included in most of the hotels we have stayed in and helped us so much we had to share here our experience. Thank you!More</t>
   </si>
   <si>
+    <t>Eugene F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r460499488-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -727,6 +820,9 @@
     <t>Having stayed at several of the motels along this strip, this one is pretty much in the middle.  I chose it because it was the lowest price among the acceptable motels in that area, and because it is within walking distance of the Whataburger (the only eatery along the strip).  Room was clean, and I liked the high ceiling (third floor).  No sound problems.  Breakfast was good, but not much selection, though the attendant didn't keep up with cleaning the tables. On this strip of motels, I try to choose those that have their own vans, and this one does.  The van driver will take visitors to nearby venues if it isn't busy.  Employees weren't the best, but got the job done.  If this wins the price competition on my future trips, I'd stay here again.More</t>
   </si>
   <si>
+    <t>MajorFlow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r458239774-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -748,6 +844,9 @@
     <t>I was there for a few weeks during my training.The room was huge and as far as I can tell it was clean, although the furniture was very old.Bathroom was clean.Outdoor pool was very dirty for the first 2 weeks, but then got cleaned and was okay.Gym wasn't serviced at all it seems. The box of used towels was full when I got there and wasn't emptied the entire 3.5 weeks of my stay. I guess that's how it was cleaned as well.Breakfast was horrible. You had to eat on plastic plates with plastic tools, I mean that says it all.Shuttle service to and from the airport is really good, they also take you to other places, they took me to my training facility for example.Book this hotel if you want to stay for one night and just need a bed, in any other case:Go somewhere else!More</t>
   </si>
   <si>
+    <t>Corine C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r450770205-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -769,6 +868,9 @@
     <t>We spent Christmas Eve night here to catch a 6am flight on Christmas Morning intending to use the shuttle service.  In spite of calling days before to confirm shuttle availability, we were misinformed over the phone...the Holiday shuttle schedule was not available for our flight needs!HOWEVER, the very helpful night clerk, Gra, arranged a 3:30am pickup with a local service for us and even advised we talk to the manager on our return about a refund of our cab-fare as we were misinformed of the shuttle schedule!  He calmly took care of our needs when I might have freaked out over holiday travel snafus! lolParking was adequate and we didn't have any trouble getting the shuttle on our return.More</t>
   </si>
   <si>
+    <t>James B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r448757070-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -790,6 +892,9 @@
     <t>My wife and I stayed overnight en route to Odessa Texas. We arrived very late (nearly 3:30a) due to a delayed flight, but Trevor (pardon my spelling) was very accommodating and even gave us a complimentary late check-out. The room was really nice and the bed slept nicely. The hotel offers a tantalizing breakfast and is only minutes from DFW. All was going satisfactorily until I went to check out. I always request a receipt when I book online and 01/02/17 was no different. When I approached the front desk clerk I said, "Good morning, ma'am!" She didn't reply but kept her head down looking at the computer. Since it was the afternoon I trilled, "My apologies but good afternoon!" Again she said nothing but kept looking at her computer. Sensing she wasn't having the best of days, I did anyway with any further pleasantries and let her know I was checking out of room 314 and desired a receipt. She still said nothing but about 30 seconds later she responds, "I can't give you a receipt." I asked why and she tells me it is because I booked on Expedia. I humbly replied that I did not use that site for this reservation. She then says that she can't give me one because I booked on Hotels.com. That was not the case either as I booked on the Choice Hotels website. As I am standing there she said I'll...My wife and I stayed overnight en route to Odessa Texas. We arrived very late (nearly 3:30a) due to a delayed flight, but Trevor (pardon my spelling) was very accommodating and even gave us a complimentary late check-out. The room was really nice and the bed slept nicely. The hotel offers a tantalizing breakfast and is only minutes from DFW. All was going satisfactorily until I went to check out. I always request a receipt when I book online and 01/02/17 was no different. When I approached the front desk clerk I said, "Good morning, ma'am!" She didn't reply but kept her head down looking at the computer. Since it was the afternoon I trilled, "My apologies but good afternoon!" Again she said nothing but kept looking at her computer. Sensing she wasn't having the best of days, I did anyway with any further pleasantries and let her know I was checking out of room 314 and desired a receipt. She still said nothing but about 30 seconds later she responds, "I can't give you a receipt." I asked why and she tells me it is because I booked on Expedia. I humbly replied that I did not use that site for this reservation. She then says that she can't give me one because I booked on Hotels.com. That was not the case either as I booked on the Choice Hotels website. As I am standing there she said I'll need to go to Hotels.com to get the receipt. Not wanting to cause a scene I simply thank her and walk away. There's never been a time that I was not granted a receipt. In fact, 3 days prior I stayed a few yards away at the Comfort Suites, made the same request upon check-out and still have the receipt to prove it. More</t>
   </si>
   <si>
+    <t>YOY1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r444842706-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -805,6 +910,9 @@
     <t>This was a surprisingly nice,  comfortable, clean,  friendly-staffed, quiet, Comfort Inn!  Hot breakfast was the basic for this level of hotel, but welcomed.  Obviously, my four star rating is based on the class of accommodation in relation to similar properties.  It is not a full service hotel, and there is nothing around it, but for a layover stop it was very good.  Would layover there again. One thing to note:  Call them for airport shuttle pickup</t>
   </si>
   <si>
+    <t>Terrance C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r437255072-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -823,6 +931,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>CJDittes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r431486306-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -841,6 +952,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Sue P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r424856188-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -859,6 +973,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Tony H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r423977173-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -874,6 +991,9 @@
     <t>The desk staff, including Gabe, Ian, and Marcos are wonderful.  The shuttle driver, Andrew is the best.  However, avoid at all times the driver, Santiago.  He's not only rude, but totally unprofessional.  This is why I gave the hotel only 4 stars.</t>
   </si>
   <si>
+    <t>Jessica B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r415384170-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -889,6 +1009,9 @@
     <t xml:space="preserve">The staff was amazing. Rooms were great. Breakfast was very good. My only complaint is that the elevator is rather scary. But my stay was awesome. Will probably use them for other visits since we go down so often. </t>
   </si>
   <si>
+    <t>madisonavenue</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r394026482-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -907,6 +1030,9 @@
     <t>The room was clean, neat, and pristine, and the building was clean and well kept. The pool was wonderful and refreshing, and there was not too much noise. That being said- check in was chaotic and a shambles, with two individuals who seemed to be training each other---juggling the phone, trying to fill out forms, trying to answer questions, asking each other for answers...AND---if you have to leave early to get an early flight and to get thru security and check your baggage, you had better forget about the " free breakfast"---it is not going to happen before 6:30 a.m. on the dot--SO- before you book at this place- make sure you buy some donuts or have coffee in the room- because breakfast is not going to happen before 6:30 a.m. And even upon arrival, there was no water for refreshment in the front lobby.More</t>
   </si>
   <si>
+    <t>Danielle W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r388772722-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -925,6 +1051,9 @@
     <t>This is the most unorganized hotel I have ever stayed at! The front desk clerk, her name starts with a "T" Temechia or something! She disrespects the customers behind there backs, talks/FaceTime on her phone while working. Sits in a back room literally doing nothing. When the phone rings, she huffs and puffs about getting up and answering it. Her professionalism is atrocious! Very disappointed in this hotel. No clean towels by pool, hot tup doesn't work! Shuttle service sucks, if you need to get somewhere, then schedule it 4 hours in advance just so that you may be get there on time, but no promises! Management needs to get rid of that girl. She is the main reason why I am very unhappy at this hotel.More</t>
   </si>
   <si>
+    <t>Michele A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r388399813-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -943,6 +1072,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>DANIELA E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r384717483-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -961,6 +1093,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Carol G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r384651589-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -976,6 +1111,9 @@
     <t>Beds were comfortable and rooms were clean. The whole hotel had a musty and smoky smell to it. The service was inconsistent, some people were efficient and pleasant and other staff the opposite. We asked and were given permission to check out two hours later the next day. One hour into the late check-out period, however, we were told we had to clear out within fifteen minutes. When we explained that we had permission, we were told that permission never should have been given and we had twenty minutes to leave the room or we would be charged an extra night. Given one person was in the shower and suitcases were unpacked, this was a bit of a challenge.We will not be returning to this hotel.More</t>
   </si>
   <si>
+    <t>Jennifer M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r377631467-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -997,6 +1135,9 @@
     <t>We check in and guy was nice told us where to park our truck.  Easy check in.  Our son got sick that night we went down for more towels since we only had 1 in room with 3 ppl.   And he told us he would be up in 10 mins with more towels.   NEVER COME!   Then go to leave the next day and notice truck sounds loud.  Look and someone had stolen the exhaust system off truck.   We went to front and guy called cops but told us he couldn't call manager or get ahold of him.   Also told us he didn't know if there were cameras and he couldn't help us.More</t>
   </si>
   <si>
+    <t>Lou L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r376442035-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1012,6 +1153,9 @@
     <t>Very nice place to stay except our AC quit working..And I could not understand why they would start their breakfast at 6:30 if they knew people were leaving earlier just an FYI.Good customer service.</t>
   </si>
   <si>
+    <t>Angie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r374329786-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1027,6 +1171,9 @@
     <t>Had an early flight so stayed one night. Room was clean and updated. Breakfast was great. Staff was helpful. Did not use any facilities.Was easy to get in and out to go to airport. Shuttle was offered but we choose to park at airport. Would use this Hotel again.</t>
   </si>
   <si>
+    <t>Peter P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r369117796-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1048,6 +1195,9 @@
     <t>This hotel is 5 minutes drive from the DFW Airport and is a very pleasant establishment, the staff are good at their jobs and go out of their way to make you feel very welcome,the front desk people are efficient and friendly, Marcos was exceptional as was the 2 Andrew's who provided safe and timely shuttle transport and the rooms were well apointed, clean and fresh and everything worked well including the wifi, the free hot breakfast was a highlight with everything tasty fresh and hot,overall a very well run establishment and I recommend it for anyone wanting to be close to the Airport, also a quick Dart ride to downtown is also a convenient way to get around if you dont have a car, a very pleasant surprise indeed.More</t>
   </si>
   <si>
+    <t>Mychele22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r367058411-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1063,6 +1213,9 @@
     <t>We were looking for a good hotel cheap for one night because we were tired.... we were pleasantly surprised... Priceline had it at 2.5 stars but I'd give it 3.5 or higher!!Room very clean!! VERY comfy bed.... good water pressure on shower!! Free wifi, free breakfast... we got the room for only 50$... Can't beat that at all!!!</t>
   </si>
   <si>
+    <t>Ranjit C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r364028253-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1081,6 +1234,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>TravelPansy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r361007821-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1096,6 +1252,9 @@
     <t>I chose this hotel because it was close to the airport.  I was expecting a typical airport hotel---run down, noisy, etc.  This place appears to relatively new, the rooms are all suites.  The shuttle service was convenient.  The rooms were quiet and well appointed.  Nice bedding and nice bathroom.  Price was excellent.  Only criticism I'd have is it would be nice for the shuttle to run to the airport every 1/2 hour.  It currently runs every hour.  Other than that, this is a place I'd return to!</t>
   </si>
   <si>
+    <t>Kevin C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r358177651-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1111,6 +1270,9 @@
     <t>Front desk personnel did a great job of explaining the Park &amp; Fly  Option and we gladly accepted.  For an added $50 we received shuttle service to and from DFW as well as up to 14 days of parking at the Comfort.  We called the Comfort as soon as we picked up our luggage and Tyler picked us up at our terminal within 20 minutes.  Then he delivered us promptly to our car.  The room and other hotel staff were nice too.</t>
   </si>
   <si>
+    <t>YARITA_CM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r357970439-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1129,6 +1291,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Jzubi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r356958918-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1144,6 +1309,9 @@
     <t>The hotel's location is convenient for DFW connections/layovers but everything else probably ranks below average when compared to other low budget airport hotels. Our room's bathroom had a very odd smell and the room itself didn't appear very clean. The room is very large and the bed is comfortable enough but the pillows are close to painful.</t>
   </si>
   <si>
+    <t>JoannainColorado</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r356214003-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1159,6 +1327,9 @@
     <t>The hotel is fine but the staff is a mess.  It took over 90 minutes from the time we called for shuttle to pick us up at the airport to the time that the shuttle actually showed up.  We called the hotel six times during this fiasco as we longfully watched other hotel shuttles come and go.   When we finally asked to speak to a manager, we were told there wasn't one!  Too bad - they could use some adult supervision.  Won't stay here again.</t>
   </si>
   <si>
+    <t>Enteng000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r354933682-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1175,6 +1346,9 @@
   </si>
   <si>
     <t>Our stay in this place on two different occasions were really pleasant.  Because of a booking mix-up on my part for my first stay, I arrived one week ahead of my actual booking, at 9 pm.  The hotel desk person, Marcos, was both gracious and helpful and he offered everything in his power to straighten out the situation (that was my fault in the first place).  To make a long story short, Marcos was able to find a resolution that was acceptable to both parties.  We were still able to stay in this hotel that night.We were greeted with a very nice surprise as we walked the hallway to the room.  The hallways were wide, much wider than hotels with higher star ratings.  The room was spacious, clean, and neat.  There were lots of pillows and towels in the bathroom.  There was a refrigerator, microwave, and a coffeemaker--things that have started disappearing from hotel rooms in an effort to cut down on costs.The bed was soft but firm.  There was enough space on the desk to do work.  We had a very quiet and comfortable stay.The breakfast was an added surprise.  They offered fried eggs (not scrambled powder) and bacon rashers, along with the normal fare of cereal, muffins, fruit, etc.  The breakfast table even had hard boiled eggs!We had such a great time that we came back the next week.More</t>
+  </si>
+  <si>
+    <t>Mike_Savereux</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r351173737-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
@@ -1203,6 +1377,9 @@
 Although some reviews have stated issues with the rooms I have to be realistic that for the price I have no complaints. There was a nice comfortable king bed and the bathroom was OK. The room was very warm though and the PTAC personal A/C unit...For the price for a three night stay the hotel represented good value and included a hot breakfast with a decent selection in a dining area suitable to the number of guests. We all know that inclusive breakfast in economy lodges is not always too good but this case it is. The attentive lady even topped up the hotel selection 30 minutes before the end of breakfast and let's be honest, most of us have stayed in far more expensive hotels where breakfast costs too much and the buffet runs low later in the morning!The staff in the hotel are helpful and the airport shuttle drivers were very accommodating. The ride to DFW is only ten minutes, so this is very convenient for a stopover or even to explore the city by jumping on the DART rapid transit system from DFW.Although there is no onsite restaurant for dinner there are options nearby and snacks can be bought in a small outlet by the front desk.  It is also possible to have Italian or Chinese food sent in at a reasonable price.The free wifi was pretty good and seemed to be reliable.Although some reviews have stated issues with the rooms I have to be realistic that for the price I have no complaints. There was a nice comfortable king bed and the bathroom was OK. The room was very warm though and the PTAC personal A/C unit tended to overcool the room, but all in all with some experimenting it is possible to make things comfortable.More</t>
   </si>
   <si>
+    <t>Cindy T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r348255387-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1221,6 +1398,9 @@
     <t>We were stranded by the snow storm  Kayla, when our flight left 40 minutes early, with our luggage (without us) the airline gave us a voucher for this hotel,the rooms were clean and the staff was so accommodating,they gave us toothpaste and toothbrushes, as we had nothing but the clothes on our back. The next morning,after taking the hotel shuttle to the airport we found ourselves still without a flight, the hotel shuttle operater, Q, offered to take us to a Walmart so we could get some necessary  items and a change of clothes. The  staff treated us like family, Nonnie and Valari went out of their  way to make us comfortable and A.J. gave us some food suggestions  that we loved... If your ever in Irving, or stranded  at DFW airport, you cannot go wrong staying at this  property...More</t>
   </si>
   <si>
+    <t>Thor1412</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r344344225-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1242,6 +1422,9 @@
     <t>My wife and I had the displeasure of staying at the Comfort Inn DFW Airport North in Irving Texas January 8 and 9, 2016.  We believe a clean room is very desirable.  But this hotel was "too clean."  Someone with a key stole money out of our room.  We left a specific amount of money in a zipped up pocket in my travel case inside my zipped up travel bag.  Someone stole some money out of the pocket and then put the travel case back into the travel bag and zipped it up.  I wanted to report it to the manager on duty, but the manager on duty was never around.  Moral of the story is, don't trust these hotel employees.  If they took this what else have they stolen that travelers don't know about?  The hotel advertised a Jacuzzi but it never worked.  The hotel advertised Internet access but it never worked.  The hotel advertised a full breakfast but the juice dispenser never worked.  Mary at the front desk was nice but she was not a mechanic nor was she a computer IT technician.  This hotel has hidden costs.More</t>
   </si>
   <si>
+    <t>James S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r342738261-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1257,6 +1440,9 @@
     <t>Some things were good some not. Staff was accommodating. Breakfast buffet was only fair. Salt but no pepper for your eggs. The management stopped ordering pepper.  The cost savings were evident everywhere. Poor maintenance. Black mold evidence in shower. Cigarette butt stations overflowing. Gutter downspouts broken off and lying in the bushes.  CFL bulbs everywhere. Kinda like motel 6 with Best Western Price. No nearby restaurants. Whattacrappyburger 1/4 mile walk away. Jet noise constant.</t>
   </si>
   <si>
+    <t>ROLLTIDE8401</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r341062144-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1272,6 +1458,9 @@
     <t xml:space="preserve">DH and I stayed here after the other hotels closer to AT&amp;T Stadium were booked. Man, are we glad we didn't pay the money to stay closer. We were in a great location to head to Dallas, Fort Worth, Arlington. Friendly staff and the free breakfast option was exactly what we needed. The Texas shaped waffles are awesome!! If you are staying on the lower level the side parking lots are awesome. Best place to park due to the doors and easy in and out. </t>
   </si>
   <si>
+    <t>TravelingLily2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r340657666-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1287,6 +1476,9 @@
     <t>To begin with, I thought the guy at the desk was great!  So was our first shuttle driver, the night we arrived.  BUT...we waited at the airport far too long for the shuttle.  Then, the following day, we had to return to the airport to pick up our rental car.  We waited even longer!  If we had been trying to catch a flight, we would have had to take a cab.  So, those issues color my review.  The room was fine.  Breakfast, too.</t>
   </si>
   <si>
+    <t>Bobbiew70</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r335931575-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1308,6 +1500,9 @@
     <t>I walked into this hotel late night after a very long day. The staff at the front desk were friendly, helpful and understanding of the stress involved in a long day of travel. My room had a mini fridge and microwave. The king size bed was exceptionally comfortable with a down comforter and "pick your pillow" with both soft and firm pillows to choose from. I expected a continental breakfast but actually had a free hot breakfast available the next morning. Breakfast included scrambled eggs, sausage, bacon, waffles, bagels, danishes and an array of coffee to choose from. There is a pool and hot tub, laundry facilities, free wifi, 24 hr. mini market with drinks and snacks. I highly recommend this hotel to anyone who needs a great night sleep after traveling all day.More</t>
   </si>
   <si>
+    <t>Satinder S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r334657590-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1323,6 +1518,9 @@
     <t>Rooms are spacious enough. Best thing was the shuttle service to the airport and a nearby mall. All their staff are pretty helpful, be it the reception staff or the shuttle drivers.I was made to wait for an hour at the airport for the shuttle, as the email notifying the hotel about my arrival were being delivered to the hotel's ex-employee, but somehow managed to call them up from the airport and they picked me in no time. When checked into the room, there was no complimentary drinking water available in the room, but could be purchased from the grocery at the hotel reception.</t>
   </si>
   <si>
+    <t>Angie_Ohio</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r322125133-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1344,6 +1542,9 @@
     <t>Stayed at the hotel with a group.  The staff was very friendly and helpful.  The directions to the elevator were confusing, so a staff member walked me there.  Good customer service.  They were also very helpful and accommodating to our group.My room was large and clean for the most part.  The only thing that I can say was a bit disappointing was the shower.  The button that pulls up for the shower did not pull up all the way, so it slowed the water pressure.  The faucet did not end flush with the wall.  It was loose and pipes were visible.  It was evident that the tub was scrubbed; however, age has made a few crannies that dirt/mildew hides in and makes it look dirty.  Other than the few small things with the shower, the room was spacious and clean.  Housekeeping was great and friendly, too.More</t>
   </si>
   <si>
+    <t>chippochic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r294388850-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1365,6 +1566,9 @@
     <t>My husband and I stayed here for one night before picking up a rental RV in McKinney.  James picked us up from the airport after calling the hotel.  He is an extremely pleasant guy who offered to drive us to a restaurant later that night.  The front desk staff were very friendly too.  The room was fine although it did have an overpowering deodoriser smell but we didn't notice it after a while.  There was a fridge, microwave and coffee maker.  The hotel has been renovated somewhat but the bathroom tub and shower were still a little tired, although very clean.  The bonus for me was a laundry as we had been in Boston and New York and needed to do some washing. We will return when we drop off the RV.More</t>
   </si>
   <si>
+    <t>Debora K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r275851730-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1380,6 +1584,9 @@
     <t>We did a one night on our way to the airport and even though it was late when we checked in the staff were so nice and helpful, the next morning EARLY our shuttle was waiting and despite the early hour our driver was very nice and cheerful. Now we are back for one night on our way home our car was just fine and again we were meet by a very nice driver and greeted by a very nice staff. Both stays our rooms were very clean and beds nice and comfortable. Definitely would recommend this hotel and will be staying here again!</t>
   </si>
   <si>
+    <t>worfle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r275291806-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1401,6 +1608,9 @@
     <t>We ended up staying at this hotel as the result of a cancelled flight and walked over from a booked competitor. I sure am glad the competitor was booked. This hotel was slightly more expensive, but still priced competitively. The room was perfect. Great, firm (but comfortable) bed, choice of pillows, exceptionally clean and it felt very safe. The staff was extremely accommodating; getting us checked in quickly, providing some needed toiletry items with no charge, and telling us about the breakfast to come in the morning. We slept amazingly and the breakfast was delicious. They offer a free shared shuttle to the airport, but we Ubered for less than $9 (less than half the price of the previous night's cab ride). I took a business card for the sole purpose of writing this review because the entire team operating this facility deserves a round of applause!More</t>
   </si>
   <si>
+    <t>jimmyandcarol</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r268194124-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1419,6 +1629,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>eds946</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r267147119-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1434,6 +1647,9 @@
     <t>This is a great hotel.  Comfort Inn is usually associated with a okay hotel for the night, but this property is classy.  The hotel is definitely renovated and the rooms, hallway and lobby were first class.  Leslie, the front desk clerk, was most gracious and professional, and it is hard nowadays to find a more professional front desk clerk.  He was awesome.  Breakfast was okay, but at least they have a hot breakfast going (scrambled eggs and sausage).</t>
   </si>
   <si>
+    <t>Tricia D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r266776851-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1449,6 +1665,9 @@
     <t>We like early morning flights but not early morning commutes.  Because airport parking is so expensive this deal is great!  You commute the night before, relax and get a good night's sleep in a very comfy bed and leave your car in their parking lot for the duration of your trip.  They shuttle you to the airport in a comfy van and pick you up on your return...all for the price of 1 night stay.  Appropriately named Comfort Inn.  I would give 5 stars but we had a 1st floor room and elephants were in the room above us stomping back and forth all night.  Ask for a 2nd floor room!More</t>
   </si>
   <si>
+    <t>FaithPrevails</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r260758884-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1470,6 +1689,9 @@
     <t>Our airport shuttle notified us that they "might not" be able to take us from McKinney to DFW a few weeks ago due to a forecasted snow storm.  So I very arbitrarily picked the Comfort Inn to stay at that night.  They let you keep your car in their lot for 14 days...additional days since we were going to be gone 18 days was only $9/day the same as remote parking.  That was a terrific decision on our part.  Very nice room. Clean and comfortable. Nice breakfast and employees were helpful and friendly.  We will definitely use them again.  They were wonderful in getting us to and from DFW.  We are very happy with the hotel and service.  Our car was nice and safe. Highly recommend Comfort Inn in Irving.More</t>
   </si>
   <si>
+    <t>Norm6436</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r260577531-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1488,6 +1710,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Katherine M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r258691991-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1503,6 +1728,9 @@
     <t xml:space="preserve">The rooms are clean and the workers seemed friendly enough. The walls are paper thin and we could hear what everyone was doing everyone was doing in the rooms next to ours. That was the worst part of our experience. Especially when there was non stop banging until one in the morning in the room next to ours. Breakfast was good. If you need to stay here only for a night or two this place would be okay. </t>
   </si>
   <si>
+    <t>James N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r257900809-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1518,6 +1746,9 @@
     <t>We ended up being stranded in Dallas for 2 days because of DFW shutdown for weather.  Tyler, the Asst. General Manager was very helpful and accommodating.  They shuttled us to restaurants and the mall.  Couldn't ask for more.  Great help in a bad situation.</t>
   </si>
   <si>
+    <t>Denise M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r257307143-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1536,6 +1767,9 @@
     <t>We stayed here while attending the NCA National Championship at the Dallas Convention Center. At first I was worried about it being 25 miles away but it was very easy to get to and the distance was not an issue. The room was clean and the bed was very comfortable. Luckily we were not there for the scenery because the view from our room was a brick wall but that was really a non-issue with us. It acutally was a plus for us because it kept the sun from shining in too early and we were able to sleep late after a very long day. Overall, the hotel was perfect for our needs and I have no complaints.More</t>
   </si>
   <si>
+    <t>Irene V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r256084237-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1551,6 +1785,9 @@
     <t>A truly comfortable experience away from home! Very clean, attractive modern room, 'just right' bed, courteous, efficient staff, all the amenities. Safe, adequate parking space. Price was right! It is a first rate hotel.</t>
   </si>
   <si>
+    <t>Cynthia W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r250902927-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1572,6 +1809,9 @@
     <t>This hotel was recommended to me by our travel agent. I HIGHLY recommend it!!! The hotel is very clean and updated. We stayed here the night before we caught an early flight to Boston. I loved that we could Park N Fly. I like the fact that the small couch pulls out into an additional bed if your children are different genders. The Wi-Fi was a little spotty, but we did not mind as we needed to get to bed early anyway. When we returned from our trip the shuttle was very efficient in picking us up and my vehicle was just as I had left it. My kids want to stay here again this summer.More</t>
   </si>
   <si>
+    <t>sandi83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r249012209-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1593,6 +1833,9 @@
     <t>My husband and myself decided to do a weekend trip.  Looked at many different hotels within the price range we wanted to stay in.  This is a first rate hotel.   I checked trip advisor prior to reserving this hotel to check reviews.  The only thing I was disappointed in was the door to the bathroom we had RM 122.  There was plenty of room for the door to open into the bathroom but open into the room and would not stay open and a very heavy door.  Also only 1 trash can in bathroom,housekeeping/maintenance brought the extra trash can when they came to fix the refrigerator just need a knob on the back turned on. Good breakfast. Staying here you will not be disappointed.More</t>
   </si>
   <si>
+    <t>Scott T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r241088997-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1614,6 +1857,9 @@
     <t>Traveling on business my company had booked me into the Doubletree down the road.after a few nights of disappointment and disgust I ask for a change. I switch to the Comfort Inn and couldn't have been happier. The hotel has recently been renovated so the accommodations are clean and comfortable.beyond that, as a frequent business traveler, the staff and management are fantastic.A free,more than just carbohydrate, breakfast is fresh and satisfying. It really helps a business travelers bottom line while waiting to be reimbursed form his expense reports. The only issue I can see being a hindrance is the small shuttle bus. It's a standard mini-van of which they only have one. you may have to "wait for the next trip". My recommendation to management: Add another or upgrade to a twelve passenger vehicle.More</t>
   </si>
   <si>
+    <t>Angie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r236831485-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1629,6 +1875,9 @@
     <t>Recently renovated clean hotel. The staff is present every time I come. I travel to Dallas often and have seen the recent great improvement in this hotel. The beds could be a littles softer but they are comfortable. The rooms are quiet and have refrigerator and microwave.</t>
   </si>
   <si>
+    <t>mswatch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r234630362-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1650,6 +1899,9 @@
     <t>The staff at the hotel at check-in and check-out were great, very polite and helpful.  My stay was on a night where many flights were cancelled due to weather. The hotel is under going renovation and upgrade of the property.  The room I had seemed to be still under renovation.  The bathroom, while the tile looked new, did not have floor board or molding.  Old paint or paper was visible where this had not been replaced.  The bathtub needed to be replaced in addition to the shower head needing to be replaced.  The room was ok for an overnight airport stay, it is pretty noisy being so close to the airport.  The staff did make up for some of the hotel's physical misses.  I would give this hotel another chance but would make sure the room was completely renovated.More</t>
   </si>
   <si>
+    <t>lenoraweikum</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r233944189-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1665,6 +1917,9 @@
     <t>Hotel was under construction during stay-as soon as went outside room dust and carpet glue were all around.  Maybe a different room could have been chosen for us-midweek stay-when we came back to Dallas  we stayed at the comfort suites down the road-much nicer</t>
   </si>
   <si>
+    <t>dianadragonflygirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r221466189-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1683,6 +1938,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Akgambler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r197908701-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1702,6 +1960,9 @@
   </si>
   <si>
     <t>We were traveling with 30 people (mostly high school students) from W to E Coast and got re-routed through Dallas due to storms in Atlanta and a resulting flight cancellation.  My husband got on the phone to get us rooms for the overnight in Dallas.  We then found out our NEW flight was delayed so long due to a mechanical, we would not be in Dallas until the middle of the night, connecting with our Florida flight a couple hours later.  Within 1 hr and 20 min of having made the original reservation my husband called and cancelled these.  The manager said "no problem at all, we understand".  It took my husband 28 minutes on the phone to cancel all the rooms, but he got it accomplished (I've reviewed our phone records to confirm timelines)  We had raised EVERY PENNY in our community for this trip.  We got home... no refund on the credit card.  Called and were told "oh it takes a couple weeks".  Still no refund - call again and the manager says "oh we can't refund you because our system automatically ordered food for breakfast and bla bla bla".  My Gosh how much food did they order for crying out loud?  Not even a 25% cancellation fee, or 50%, but 100%  When we had the reservation for less than 1.5 hrs!  Don't ask me why he didn't say that in the first place.  He said FULLY REFUNDABLE....We were traveling with 30 people (mostly high school students) from W to E Coast and got re-routed through Dallas due to storms in Atlanta and a resulting flight cancellation.  My husband got on the phone to get us rooms for the overnight in Dallas.  We then found out our NEW flight was delayed so long due to a mechanical, we would not be in Dallas until the middle of the night, connecting with our Florida flight a couple hours later.  Within 1 hr and 20 min of having made the original reservation my husband called and cancelled these.  The manager said "no problem at all, we understand".  It took my husband 28 minutes on the phone to cancel all the rooms, but he got it accomplished (I've reviewed our phone records to confirm timelines)  We had raised EVERY PENNY in our community for this trip.  We got home... no refund on the credit card.  Called and were told "oh it takes a couple weeks".  Still no refund - call again and the manager says "oh we can't refund you because our system automatically ordered food for breakfast and bla bla bla".  My Gosh how much food did they order for crying out loud?  Not even a 25% cancellation fee, or 50%, but 100%  When we had the reservation for less than 1.5 hrs!  Don't ask me why he didn't say that in the first place.  He said FULLY REFUNDABLE.  This was $1000 worth of rooms we DID NOT stay in and we had worked so hard to raise the money.  To this date the manager was going to "check into it" and after avoiding my husbands calls for days, has NEVER called back.  Boycott this hotel.  Do not stay here.  Because if their property and their service is any comparison to their honesty it must be a DUMP.More</t>
+  </si>
+  <si>
+    <t>homeinindiahoma</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r196360013-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
@@ -1733,6 +1994,9 @@
 We had breakfast before we caught the shuttle bus to the airport....My husband and I stayed here March 3, 2014 when we were stuck during the recent storm. We were fortunate enough to be able to check-in before the "Check-in" time. We stayed in Room 208. When we walked in, you could tell that people had smoked there in the past. Just a faint smell of old smoke. The counter in the bathroom was coming away from the wall. Their idea of "Fixing it" was to apply caulk. There was 1/2-inch wide bead of caulk on two sides of the counter. The tub had a mat in it so that you wouldn't slip in the tub. The only problem is that it looked like it is never removed even though it is intended to be taken out when not in use.  There was a ring of dark green mold all the way around the removable mat.The refrigerator and coffee maker were in good working order. We did not use the microwave. The heater was old and loud. Every time it kicked on and was running, the TV needed to be turned up just to hear it over the noise.  Rather than deal with the noise it made every time it kicked on, I just set the fan to blow all the time when we went to bed. That way it was just a steady hum all night long.We had breakfast before we caught the shuttle bus to the airport. It was a standard "free breakfast" offered at most hotels in this chain. They offered scrambled eggs and biscuits with sausage gravy as well a waffle iron. All in all it is a good breakfast. Lots of choices.The shuttle service for us was prompt. When we checked in, they asked for our flight number. Before we got on the shuttle, they checked our flights to see what gate they would be leaving from and dropped us off at the closest door.While some of the room could certainly use some TLC, this would not stop me from staying here again. I think it is just time for some TLC and a good scrubbing down. Spring is right around the corner. Maybe its time for that good spring cleaning!!More</t>
   </si>
   <si>
+    <t>steven h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r195933960-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1748,6 +2012,9 @@
     <t>everything was good the room was great and comfortable bedding but the breakfast in the morning wasnt so great. they were out of a lot of items, maybe its cuz they were busy but no biggie. the motel is really nice</t>
   </si>
   <si>
+    <t>Kim W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r191279274-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1766,6 +2033,9 @@
     <t>Our flight was re-routed through Dallas due to the snowstorm in the Midwest, so we chose this property for its proximity to the airport. The shuttle bus was packed for nearly 10:00 at night, but many people were in the same position as us. Consequently check-in was a little slow, but that was understandable under the circumstances. The poor guy was trying to check us all in while at the same time juggling a phone that was ringing non-stop! Our room was spacious and very comfortable. It was also quiet despite being so close to the airport. Water pressure was good and the towels were very fluffy. The free wifi worked great. The breakfast area had a nice selection the next morning.More</t>
   </si>
   <si>
+    <t>Chris2Dallas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r191093295-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1784,6 +2054,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>ChinaBlessings</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r188578407-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1802,6 +2075,9 @@
     <t>We used the hotel for sleep, park and fly.  I wish the shuttle service for early morning flights could have ran on the half hour rather than the hour.  Room rate was more than others in the area but I wanted hotel points so picked this chain.  Hotel was average for the chain.  Rooms were clean and beds were comfy.  Mini fridge and microwave was a plus but we didn't need them for this trip.  Something I found strange, none of the towels matched, not even the ones that were the same size.  (Not important but just an observation.)  A major plus was the divided living room area from the sleeping area.  If someone wanted to stay up and watch TV they could do it without disturbing those wanting to sleep.  The only negative thing was the thermostat didn't adjust to temps we wanted.  The room was warm and wouldn't cool off.  Can't imagine it being comfortable in the summer months.More</t>
   </si>
   <si>
+    <t>chitashell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r182891505-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1823,6 +2099,9 @@
     <t>It was a spur of the moment trip and we booked online an hour before arriving. The room was ready for us and it was exactly what I requested.  This hotel has everything I look for in a hotel when traveling. Great location, comfortable queen beds, fridge, microwave spacious bathroom, flat screen tv, pool, whirlpool, business center, free parking, free airport shuttle, hot breakfast, laundry on site, etc.  I was impressed with the great customer, friendly staff and just overall southern hospitality. The front desk staff was very helpful in offering food options, as we arrived kind late in the evening. There is a Whataburger about a quarter mile away and it is open 24/7. The hotel is close to the airport and next to a major highway/freeway.  I did not hear a single thing/noise, although my room was facing the highway and the air conditioner was not on (so it was not that it blocked out the any noise).  I had a wonderful stay and would highly recommend this hotel to anyone.   More</t>
   </si>
   <si>
+    <t>beneman3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r177309172-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1844,6 +2123,9 @@
     <t>We just had an overnight at this hotel, but found it to be very nice. The staff was excellent and the van driver offered to take us to a nearby restaurant (Denny's is not far and was perfect for what we were looking for). We called when we were finished eating and he was there before we paid our bill.  Granted, it was a slow night or we probably would not have been able to get the shuttle based on other reviews here.  The breakfast was great and we had a great night's sleep and wake-up call for an early flight.  No problem with getting the shuttle when needed.  I didn't rate this hotel "excellent" because of the lack of food within walking distance other than the burger joint.More</t>
   </si>
   <si>
+    <t>Ron and Jeanne B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r174898831-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1862,6 +2144,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>BobVMemphis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r168492305-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1880,6 +2165,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Kathy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r167202846-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1898,6 +2186,9 @@
     <t>My family and I booked this hotel on July 4th because it advertised they took you to and from the DFW Airport with a shuttle bus. When we checked in we were told there were already 3 people scheduled for the 5:00 shuttle and the van only holds 5. Since we had needed 4 people, they could not help us. (It was an early flight, the next shuttle would have missed the plane.) So, we had to pay $40 for a cab. On our return flight, when we arrived and called this hotel, we were told their were four trips of folks waiting ahead of us. This would take over an hour and we might want to consider taking a cab. So, $40 more dollars to get back to the hotel. On top of a room, that had a stuck stopper in the bathroom sink, filthy bathroom floor, etc... I will not go back to this hotel ever again! So, if you are needing a shuttle, I would get a different hotel!More</t>
   </si>
   <si>
+    <t>Stan H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r163276854-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1916,6 +2207,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>MacKinnonjenn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r161577239-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1931,6 +2225,9 @@
     <t>The staff here have gone above and beyond. So friendly and they go out of their way to help.I would highly recommend this hotel. Great options for breakfast and even supper a couple nights a week. Great value for the money here.</t>
   </si>
   <si>
+    <t>ShawnM8989</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r158204312-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1949,6 +2246,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>JamesSteven42354</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r156044934-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1967,6 +2267,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>LEJ431</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r155113342-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1985,6 +2288,9 @@
     <t>The room was nice, staff friendly, and rates affordable.  However, the hotel's airport shuttle is a van which might squeeze 6 people in. You sign up for the shuttle when you arrive at the hotel - if you arrive late, you may not be able to get the shuttle at the time you need.  We had to take a cab from the hotel to the airport, and when we returned from our trip, there were 9 people from that hotel who arrived on the same plane.  We had to wait an hour for the van to make two trips.  Also, when we returned the pickup parked next to our vehicle had been vandalized.More</t>
   </si>
   <si>
+    <t>FarmRescueVolunteer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r152129499-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2006,6 +2312,9 @@
     <t>Needed a place to stay on a forced layover from California to Kentucky. Easy to book a room. Staff was very helpful. Both van drivers were friendly and helpful. Lobby decor is very modern and up-to-date. Rooms have microwave, fridge, wi-fi (which was slower than 4G), and hair dryer. Comfy beds.Reasons it's not a 5-star: we could hear the people in the room next door till nearly midnight. They weren't rowdy, just laughing and talking but the walls were so thin that the sound traveled right through. Would be helpful if the front desk offered free ear plugs for those with early morning flights! The door in our room looked like it had been deeply scraped or scratched and barely repaired. Was also very difficult to get a comfortable sleeping temperature in the room for the night.More</t>
   </si>
   <si>
+    <t>travelady62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r140189049-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2027,6 +2336,9 @@
     <t>We stayed here 2 nights, the first time flying out to SEA/TAC. We were able to leave our car there for 10 days which was a terrific savings and take the free shuttle over to the DFW airport. Our room had the 2 queen beds. I used the pool and exercise room on our first stay. On our return late at night from the airport we were again shuttled back to the hotel. Quick effecient service. Friendly staff. Our room this time was dark and quiet on the 2nd floor again which we wanted so we could sleep late. We never heard any noise from the hotel at all both stays. Just low aircraft noise taking off or landing. They have a nice free hot breakfast as well which we missed the second stay since we slept in. But on weekends the breakfast time is until 10:00 AM. The exercise room is small consisting of 2 treadmills and a bike. But no one was using the room either time so I had free pick of the treadmills. Just had to use my room key to get in. I also made use of the computer and printer to print out my tickets. Nice place to stay for the price and I will stay here again when in the area for a flight. My car was safe and included in the first nights stay. I reccommend it!More</t>
   </si>
   <si>
+    <t>rdonthego</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r138735009-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2054,6 +2366,9 @@
     <t>We needed a reasonably priced place to stay on our way home.  Not only was the price good, but we were greeted warmly at the front desk, provided an upgrade, and our room was very comfortable.  The lobby and breakfast area are well decorated, pleasant and the breakfast is good.  The rooms could use a little update but were not unpleasant at all.  We didn't hear airplanes even though the property is literally at the end of a main runway.  Very pleased.  Good, no great value.More</t>
   </si>
   <si>
+    <t>Angela B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r138156608-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2073,6 +2388,9 @@
   </si>
   <si>
     <t>We stayed here when we had a flight mix-up at DFW. The staff went out of their way to help us. They were professional and friendly and made our unexpected stay very pleasant. The building is older, but well-maintained, clean, and very comfortable. Rooms have all the conveniences: microwave, mini-fridge, wifi, hair dryer. I would be very happy to stay here again.More</t>
+  </si>
+  <si>
+    <t>katybagwill</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r136508897-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
@@ -2100,6 +2418,9 @@
 The hotel has a shuttle service to and from the airport. When we got back home from Mexico, we called for the shuttle and they told us they would be there in ten minutes. Well they were there on time but they parked in the wrong spot when they got the the arrivals...I normally only review places that I've stayed when I have something good to say, but this place was so terrible I am giving them a terrible review. We stayed here one night before we were flying out to Mexico. The hotel stunk overall. It smelled like they were having sewage issues. Our toilet was stopped up when we first got there so when we told the front desk, the lady had a plunger, and acted as if we were suppose to take it from her and plunge the toilet ourselves. We told her to get a maintenance man so she did. Also, our toilet would squeal every time we flushed it. I know that sounds odd, but the squealing would last for a long time so we didn't want to flush it at night because it was also loud and probably able to wake our neighbors. We went to the pool and when trying to get back into the hotel our keys would not work. There were a few other couples sitting around the pool but their keys wouldn't give them access to the building either. The hotel has a shuttle service to and from the airport. When we got back home from Mexico, we called for the shuttle and they told us they would be there in ten minutes. Well they were there on time but they parked in the wrong spot when they got the the arrivals at the airport. We saw them park in the wrong spot and started walking towards them. When we got there, another couple had walked out of the baggage claim area and claimed the shuttle for themselves. They had never called, and the driver of the shuttle never made sure he was picking up the right people. Also, when a cab driver brought to the attention of the driver that he was parked in the wrong spot, he yelled at the cab driver and used a very unprofessional language. At this time, we are so mad that  the cab driver that was yelled out took pity on us and took up to the hotel. We complained to the hotel staff (Jessica) and she never made an apology for their mistake. Nor did she ask if we wanted to speak to a manager or someone who could have done some damage control. One of the worst hotel experiences I have ever had. Will not go back. Many other nice hotels right in this area that have shuttle service to DFW. Don't waste your time or money here.More</t>
   </si>
   <si>
+    <t>Barelle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r135842410-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2118,6 +2439,9 @@
     <t>Ok, this might not be the best hotel around, but it is a very convenient budget hotel for short stays. Their breakfast is ok, rooms are bright, some rooms look better than others. I stay here frequently when connecting in DFW or when going to DFW area to shop. The rooms have hair driers, iron, microwave and some also fridges. Not enough parking spots on the front of the hotel, quick check out, all day coffee, small fitness room.More</t>
   </si>
   <si>
+    <t>shpmoser</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r133078371-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2139,6 +2463,9 @@
     <t>We stayed the night before our flight out of DFW.  It was a nice hotel, probably not the fanciest in the area, but the price was great. It is a good place if you are catching a flight the next day.  We booked a 5am shuttle to the airport, and the driver was ready to go about 5 minutes early, When we landed, we called for a pick up and they were there within 20 minutes.  We stayed on a Wednesday and they had a happy hour, which was free beer, wine, nachos, snacks from 5:30-7 pm.  I am not sure if it is just Wednesday, or every weekday, but it was pretty sweet.More</t>
   </si>
   <si>
+    <t>natosha_bard</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r125460576-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2166,6 +2493,9 @@
     <t>We stayed on the second floor.  There was so little water pressure that our toilet could not flush anything, and eventually backed up, then ran dirty water all over the floor.  The shower had so little water pressure it was impossible to feel clean after a shower, and our sink would stop running water when the people in the next room flushed their toilet, the water pressure was so low.Breakfast was OK, location was convenient to the airport.Rooms were old and had been remodeled, but not very well.  Looked very sloppy.Would certainly not stay here again; there are several other hotels nearby.More</t>
   </si>
   <si>
+    <t>Denise B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r124396442-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2184,6 +2514,9 @@
     <t>Stayed at this hotel because I had an overnight layover and it was close to the airport.  When I arrived I called the hotel for the shuttle and it was there in less than 10 minutes.  The driver was very friendly and welcoming.  At the hotel, the front desk clerk was equally pleasant as well as efficient.  I asked about restaurants that could deliver dinner and she provided me with several different menus and also told me the shuttle could take me to a nearby restaurant if I wanted to go out.  The hotel also offers a small pantry of groceries (frozen entrees, pizzas, snacks, drinks, etc.) as another option.  I was in my room with "welcome cookies" and a newspaper in no time.  The room was clean, the bed was comfortable and with the microwave, fridge, coffee pot and free wireless internet, I was set.  The following morning I ate breakfast - both hot and cold selections - equal or better than most in this hotel class - and when I was ready to go to the airport, the shuttle was waiting with another friendly driver who took me back to the airport.  I would recommend this hotel to anyone and will stay there again if the need arises.More</t>
   </si>
   <si>
+    <t>jammy-10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r123495465-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2208,6 +2541,9 @@
     <t>We picked this hotel through an online  booking agent. We were surprised to get a suite for the money that we paid. The free shuttle picked us up at DFW and the driver and the front desk staff were very friendly. They offer 2 free newspapers daily plus a breakfast bar that features scrambled eggs, sausage patties, waffles, cereal, various pastries and breads, yogurt and fresh fruit. I also saw some hard cooked eggs. The eating area was kept clean and, during the week, the hot food was constantly re-stocked. On our Sunday morning there, not so quickly. (we stayed 4 nights) They have 2 washers and 2 dryers that cost $1 a load. They have a free business center with fax, computer and printer. Our suite was big and comfortable and had a small refrigerator and a microwave, which came in handy because they are located in a strip of hotels with no restaurants. The lobby has a refrigerator where you can buy TV dinners, or you can walk 5 minutes to What A Burger and get some great burgers, shop at the attached quick mart for food and beer or wine or get the free shuttle and go to a restaurant or go shopping. We used that several times, once going to Walmart Supercenter and once going to the movies. The room's only drawbacks are the carpet, which except for the lobby, is pretty poor throughout the areas...We picked this hotel through an online  booking agent. We were surprised to get a suite for the money that we paid. The free shuttle picked us up at DFW and the driver and the front desk staff were very friendly. They offer 2 free newspapers daily plus a breakfast bar that features scrambled eggs, sausage patties, waffles, cereal, various pastries and breads, yogurt and fresh fruit. I also saw some hard cooked eggs. The eating area was kept clean and, during the week, the hot food was constantly re-stocked. On our Sunday morning there, not so quickly. (we stayed 4 nights) They have 2 washers and 2 dryers that cost $1 a load. They have a free business center with fax, computer and printer. Our suite was big and comfortable and had a small refrigerator and a microwave, which came in handy because they are located in a strip of hotels with no restaurants. The lobby has a refrigerator where you can buy TV dinners, or you can walk 5 minutes to What A Burger and get some great burgers, shop at the attached quick mart for food and beer or wine or get the free shuttle and go to a restaurant or go shopping. We used that several times, once going to Walmart Supercenter and once going to the movies. The room's only drawbacks are the carpet, which except for the lobby, is pretty poor throughout the areas that I saw and the furniture is old (but functional). I wouldn't say that our room was spotless, but it was at least as clean as I keep my house. The bathroom, however, was sparkling clean and all of the linens were very nice. My husband likes 6 towels at all times and we had no hassle getting them. They have an exercise room with a lot of nice equipment that I saw people using daily and they have a pool, but it wasn't open in January when we were there. We have booked this hotel for our return trip in March. If you plan to visit Dallas, you will need a car. If you are just staying at the hotel and don't plan to go more than 5 miles, the free shuttle will take you. We enjoyed our stay. I forgot to mention that they have free internet and it was a breeze to connect.More</t>
   </si>
   <si>
+    <t>Adeena62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r121441489-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2229,6 +2565,9 @@
     <t>We stayed here one night before a flight out of Dallas. When we checked in, they couldn't find our reservation. They finally found us and upon entering our room, I set my bag down on the desk before noticing that there were two dirty q-tips lying right on top next to my bag. That was enough for me; I didn't bother to inspect the rest of the room before sending my husband down to request a room change. Upon entering our second room, I noticed the sofa was just filthy. It's obvious that it has probably never once been cleaned, even though it has very noticeable stains all over it. I knew right then and there the chance of finding a clean room in this hotel was slim to none, so we decided it would be pointless to try and switch again. A couple of minutes into my shower, I felt the water rise up above my ankles. I had to turn the water off and back on several times before I was done because the water drained so slowly due to a clog. I don't need a lot of bells and whistles when I travel, and didn't expect any staying at a hotel with a great low price that this one had. What I *do* expect from any hotel no matter what the rate, is that it is clean. This hotel doesn't make the grade. Never again!More</t>
   </si>
   <si>
+    <t>OkeyTravellers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r120432282-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2250,6 +2589,9 @@
     <t>Stayed at this hotel so I could park my car and catch an early flight. The room was clean and the bed comfortable. Needed to leave at 5 a.m. and the shuttle was on time. Coming back, the shuttle driver took me right to my car.More</t>
   </si>
   <si>
+    <t>ExcellentAdventures</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r117305947-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2268,6 +2610,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>ambergil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r109738966-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2289,6 +2634,9 @@
     <t>I've stayed at this hotel twice while in town on business.  Both times I've been overcharged at checkout.  The staff seem very helpful at first, but in the end, they have no idea what they are doing.    It shouldn't take an hour to checkout, and eventually they just tell you what you want to hear so you'll leave.  My issues have never been resolved on the spot.  The second stay I was promised a discount for the inconvenience but never received it.  When I called the manager the next week, since he never called me like I was told he would, I was told that the employee had no authority to give discounts.  I am so disgusted with this hotel, I will never stay here again.More</t>
   </si>
   <si>
+    <t>AllAboutCleanSheets</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r99465981-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2307,6 +2655,9 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>leweyJoplin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r98010877-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2323,6 +2674,9 @@
   </si>
   <si>
     <t>February 2011</t>
+  </si>
+  <si>
+    <t>MrsKruse</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r63836051-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
@@ -2350,6 +2704,9 @@
 My room was on the 2nd floor, facing the airport.  As one of the runways runs not too far away, you will hear the planes (and as this is DFW, they do run fairly constantly).  The noise didn't bother me after being in the room 20 or 30 minutes, and it didn't wake me up when they started back up in the AM.  The room was very clean &amp; comfortable.  The bathroom had an off-putting chemical smell, but that's par for the course for chain hotel rooms.  However, it's difficult to air it out since the door can't be held open without putting something in front of it to hold it open.  WiFi would be nice, but the wired access worked fine.  You can either bring your own cord or borrow one from the front desk -...I spent a night here while on business in the area.  Being within a 10 minute drive of the airport &amp; the office was essential on such a short stay.  This was the best reviewed hotel under $100/night that fit the locale I was looking for, so I booked it.Check-in was very quick &amp; efficient.  The woman at the desk made sure to tell us the breakfast hours as well as the information on that evening's manager's happy hour before handing over the keys.  At check-out, they already had our receipts printed, so it was a very quick key &amp; receipt swap.  My room was on the 2nd floor, facing the airport.  As one of the runways runs not too far away, you will hear the planes (and as this is DFW, they do run fairly constantly).  The noise didn't bother me after being in the room 20 or 30 minutes, and it didn't wake me up when they started back up in the AM.  The room was very clean &amp; comfortable.  The bathroom had an off-putting chemical smell, but that's par for the course for chain hotel rooms.  However, it's difficult to air it out since the door can't be held open without putting something in front of it to hold it open.  WiFi would be nice, but the wired access worked fine.  You can either bring your own cord or borrow one from the front desk - you will have to crawl under the desk to plug it in (I prefer the set up of many of the nicer LaQuintas - where they have a small box run to the desk for you to plug into).  There is a mini fridge &amp; microwave if you need it.The manager's happy hour consists of bar snacks, keg beer &amp; unmarked wine (try at your own risk).  Breakfast was standard continental with the addition of waffles (I tried them...not the best I've had for a hotel), eggs &amp; sausage.  They kept things well filled in the AM.I'd definitely stay here again for my next visit to the area.  Aside from the lack of Wi-Fi, the only downfall is lack of nearby restaurants.  However, there is plenty within a 15 minute drive if you have a rental (or the shuttle will take you to a few places).More</t>
   </si>
   <si>
+    <t>Kurt.mr S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r56006574-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2368,6 +2725,9 @@
     <t>February 2010</t>
   </si>
   <si>
+    <t>farinelladad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r39286917-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2386,6 +2746,9 @@
     <t>August 2009</t>
   </si>
   <si>
+    <t>GreatDaneDanmark</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r37097062-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2407,6 +2770,9 @@
     <t>We stayed twice at the  Confort Inn in July. The  Confort Inn was  GREAT value , close  to DFW, reliable and  speedy shuttle to the  airport , confortable and  spotless clean room , free breakfast , complementary internet ( no wireless, but they lend  you a cable to connect from your room ) , small pool and  fitness room and a small business room  with a  PC , printer, etc.It took them less then 10 minutes  to pick us up at the airport from the moment i called them, and they have the shuttle  every half  hour back and  forth to the  airport  from very early in the morning  to late evening. Reception was  friendly and  speedy too, i can recommend it to everybody for an overnight stay at DFW.More</t>
   </si>
   <si>
+    <t>ScarlettNewJersey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r27719309-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2428,6 +2794,9 @@
     <t>Spent one night at the Comfort Inn Suites in Dallas Fort Worth Airport.  The courtesy van picked up up at the airport and returned us to the airport at  500AM  .We did not know what terminal we were leaving from, but the driver was kind enough to find out and deliver us to the right oneThis is a clean, no frills choice for a one night layover.  There is no restaurant in the hotel but we were informed that there was a fast food restaurant "what a burger" within walking distance.  It was better than we expected.   They also offer breakfast but we left too early to sample it.  Given the same circumstance, I would book this hotel again.More</t>
   </si>
   <si>
+    <t>TxNurse</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r19513082-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2449,6 +2818,9 @@
     <t>Stayed here Aug 16 prior to 6am flight @ DFW.  I got the room free as part of my frequent guest program.  The location to the airport was great, only a couple of minutes drive and you are in the north remote parking, which is $7/day.  There are also numerous off site parking lots which back up to the hotel property.  Those avg $10-12/day.  The hotel lobby was very modern, in fact you don't realize you are in a hotel lobby.  There is free wireless and they provide cables if you did not bring yours.  The rooms were nice and clean, a little on the small side. There was a microwave and fridge.  The only thing I did not like was the bathroom door.  It was on a hinge and would not stay open unless you propped it open.  The door when opened blocked the entryway door.  So if the bathroom door was opened you could not get into the closet.  We left too early to sample breakfast items.  Would stay here again when needing close proximity to the airport.More</t>
   </si>
   <si>
+    <t>quatromoore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r14389767-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2467,6 +2839,9 @@
     <t>March 2008</t>
   </si>
   <si>
+    <t>Trustingtraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r12996628-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2483,6 +2858,9 @@
   </si>
   <si>
     <t>January 2008</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d124452-r4372217-Comfort_Inn_DFW_North_Irving-Irving_Texas.html</t>
@@ -3017,43 +3395,47 @@
       <c r="A2" t="n">
         <v>37755</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>7431</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3067,50 +3449,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37755</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>508</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3124,50 +3510,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37755</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>832</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3181,50 +3571,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37755</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>124706</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>68</v>
       </c>
-      <c r="J5" t="s">
+      <c r="O5" t="s">
         <v>69</v>
-      </c>
-      <c r="K5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" t="s">
-        <v>66</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3238,50 +3632,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37755</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>12085</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -3299,50 +3697,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37755</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>124707</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3356,50 +3758,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37755</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>124708</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -3419,50 +3825,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37755</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>124709</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -3482,50 +3892,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37755</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>124710</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3539,50 +3953,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37755</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>124711</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3602,41 +4020,45 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37755</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>83974</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
@@ -3655,50 +4077,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37755</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>124712</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -3718,50 +4144,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37755</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>124713</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3775,50 +4205,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37755</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>124714</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="O15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3838,50 +4272,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37755</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>124715</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O16" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3895,50 +4333,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37755</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>124716</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3956,50 +4398,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37755</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="J18" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="O18" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4013,50 +4459,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37755</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>124717</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="J19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="K19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4070,50 +4520,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37755</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>53674</v>
+      </c>
+      <c r="C20" t="s">
+        <v>178</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="J20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="K20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="L20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="O20" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -4133,50 +4587,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37755</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>124718</v>
+      </c>
+      <c r="C21" t="s">
+        <v>184</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="J21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -4194,50 +4652,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37755</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>124719</v>
+      </c>
+      <c r="C22" t="s">
+        <v>191</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="J22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="K22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="L22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4255,50 +4717,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37755</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>124720</v>
+      </c>
+      <c r="C23" t="s">
+        <v>198</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="J23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="O23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4316,50 +4782,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37755</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>6272</v>
+      </c>
+      <c r="C24" t="s">
+        <v>205</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="J24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="K24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="L24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="O24" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4377,50 +4847,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37755</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>124721</v>
+      </c>
+      <c r="C25" t="s">
+        <v>212</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="J25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4434,50 +4908,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37755</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>3993</v>
+      </c>
+      <c r="C26" t="s">
+        <v>218</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="J26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="O26" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4495,50 +4973,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37755</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>124722</v>
+      </c>
+      <c r="C27" t="s">
+        <v>224</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="J27" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="K27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4556,50 +5038,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37755</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>124723</v>
+      </c>
+      <c r="C28" t="s">
+        <v>231</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="J28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="K28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="L28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="O28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -4617,50 +5103,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37755</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>124724</v>
+      </c>
+      <c r="C29" t="s">
+        <v>238</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="J29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="K29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="L29" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="O29" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -4678,50 +5168,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37755</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>124725</v>
+      </c>
+      <c r="C30" t="s">
+        <v>245</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="J30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="K30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="O30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4735,50 +5229,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37755</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>124726</v>
+      </c>
+      <c r="C31" t="s">
+        <v>252</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="J31" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="K31" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L31" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="O31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4792,50 +5290,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37755</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>86010</v>
+      </c>
+      <c r="C32" t="s">
+        <v>258</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="J32" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="K32" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="L32" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="O32" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -4855,50 +5357,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37755</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>124727</v>
+      </c>
+      <c r="C33" t="s">
+        <v>266</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="J33" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="K33" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="L33" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="O33" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4912,50 +5418,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37755</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>124728</v>
+      </c>
+      <c r="C34" t="s">
+        <v>274</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="J34" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="K34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="L34" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4975,50 +5485,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37755</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>7151</v>
+      </c>
+      <c r="C35" t="s">
+        <v>282</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="J35" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="K35" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="L35" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="O35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5032,41 +5546,45 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37755</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>124729</v>
+      </c>
+      <c r="C36" t="s">
+        <v>290</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="J36" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="K36" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="L36" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
@@ -5085,50 +5603,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37755</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>124730</v>
+      </c>
+      <c r="C37" t="s">
+        <v>296</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="J37" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="K37" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="L37" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="O37" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5142,50 +5664,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37755</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>124731</v>
+      </c>
+      <c r="C38" t="s">
+        <v>303</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="J38" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="K38" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="L38" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="O38" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5205,50 +5731,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37755</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C39" t="s">
+        <v>310</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="J39" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="K39" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5266,50 +5796,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37755</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>12238</v>
+      </c>
+      <c r="C40" t="s">
+        <v>317</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="J40" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="K40" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="L40" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="O40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5327,50 +5861,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37755</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>1433</v>
+      </c>
+      <c r="C41" t="s">
+        <v>323</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="J41" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="K41" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="L41" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5384,50 +5922,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37755</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>124732</v>
+      </c>
+      <c r="C42" t="s">
+        <v>329</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="J42" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="K42" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="O42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -5447,50 +5989,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37755</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>36171</v>
+      </c>
+      <c r="C43" t="s">
+        <v>336</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="J43" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="K43" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="L43" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="O43" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5504,50 +6050,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37755</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>124733</v>
+      </c>
+      <c r="C44" t="s">
+        <v>343</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="J44" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="K44" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="L44" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5567,50 +6117,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37755</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>124734</v>
+      </c>
+      <c r="C45" t="s">
+        <v>350</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="J45" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="K45" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="L45" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="O45" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5624,50 +6178,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37755</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>4758</v>
+      </c>
+      <c r="C46" t="s">
+        <v>357</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="J46" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="K46" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="L46" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="O46" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -5687,50 +6245,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37755</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>1363</v>
+      </c>
+      <c r="C47" t="s">
+        <v>363</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="J47" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="K47" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="L47" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5744,50 +6306,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37755</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>124735</v>
+      </c>
+      <c r="C48" t="s">
+        <v>371</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="J48" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="K48" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="L48" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5801,50 +6367,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>37755</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>23668</v>
+      </c>
+      <c r="C49" t="s">
+        <v>377</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="J49" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="K49" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="L49" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="O49" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5858,50 +6428,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37755</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>2984</v>
+      </c>
+      <c r="C50" t="s">
+        <v>383</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="J50" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="K50" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="L50" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="O50" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -5919,50 +6493,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37755</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>78657</v>
+      </c>
+      <c r="C51" t="s">
+        <v>391</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="J51" t="s">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="K51" t="s">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="L51" t="s">
-        <v>346</v>
+        <v>396</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5976,50 +6554,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>346</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>37755</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>17779</v>
+      </c>
+      <c r="C52" t="s">
+        <v>397</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="J52" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="K52" t="s">
-        <v>350</v>
+        <v>401</v>
       </c>
       <c r="L52" t="s">
-        <v>351</v>
+        <v>402</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6033,50 +6615,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>351</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>37755</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>38305</v>
+      </c>
+      <c r="C53" t="s">
+        <v>404</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="J53" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="K53" t="s">
-        <v>356</v>
+        <v>408</v>
       </c>
       <c r="L53" t="s">
-        <v>357</v>
+        <v>409</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
       <c r="O53" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6094,50 +6680,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>357</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>37755</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>6280</v>
+      </c>
+      <c r="C54" t="s">
+        <v>410</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="J54" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="K54" t="s">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="L54" t="s">
-        <v>362</v>
+        <v>415</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
       <c r="O54" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6151,50 +6741,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>362</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>37755</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>124736</v>
+      </c>
+      <c r="C55" t="s">
+        <v>416</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="J55" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="K55" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="L55" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="O55" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -6214,41 +6808,45 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>37755</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>124737</v>
+      </c>
+      <c r="C56" t="s">
+        <v>423</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="J56" t="s">
-        <v>371</v>
+        <v>426</v>
       </c>
       <c r="K56" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
       <c r="L56" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="M56" t="n">
         <v>2</v>
@@ -6267,50 +6865,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>37755</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>124738</v>
+      </c>
+      <c r="C57" t="s">
+        <v>429</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>374</v>
+        <v>430</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="J57" t="s">
-        <v>376</v>
+        <v>432</v>
       </c>
       <c r="K57" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="L57" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
       <c r="O57" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6324,50 +6926,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>37755</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>124739</v>
+      </c>
+      <c r="C58" t="s">
+        <v>435</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>380</v>
+        <v>437</v>
       </c>
       <c r="J58" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
       <c r="K58" t="s">
-        <v>382</v>
+        <v>439</v>
       </c>
       <c r="L58" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
       <c r="O58" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6387,50 +6993,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>37755</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>124740</v>
+      </c>
+      <c r="C59" t="s">
+        <v>442</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>385</v>
+        <v>443</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>386</v>
+        <v>444</v>
       </c>
       <c r="J59" t="s">
-        <v>387</v>
+        <v>445</v>
       </c>
       <c r="K59" t="s">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="L59" t="s">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="O59" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6448,50 +7058,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>37755</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>10882</v>
+      </c>
+      <c r="C60" t="s">
+        <v>449</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>391</v>
+        <v>450</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>392</v>
+        <v>451</v>
       </c>
       <c r="J60" t="s">
-        <v>393</v>
+        <v>452</v>
       </c>
       <c r="K60" t="s">
-        <v>394</v>
+        <v>453</v>
       </c>
       <c r="L60" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="O60" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -6509,50 +7123,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>396</v>
+        <v>455</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>37755</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>124741</v>
+      </c>
+      <c r="C61" t="s">
+        <v>456</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>397</v>
+        <v>457</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>398</v>
+        <v>458</v>
       </c>
       <c r="J61" t="s">
-        <v>399</v>
+        <v>459</v>
       </c>
       <c r="K61" t="s">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="L61" t="s">
-        <v>401</v>
+        <v>461</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
       <c r="O61" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -6572,50 +7190,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>403</v>
+        <v>463</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>37755</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>9507</v>
+      </c>
+      <c r="C62" t="s">
+        <v>464</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>404</v>
+        <v>465</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>405</v>
+        <v>466</v>
       </c>
       <c r="J62" t="s">
-        <v>406</v>
+        <v>467</v>
       </c>
       <c r="K62" t="s">
-        <v>407</v>
+        <v>468</v>
       </c>
       <c r="L62" t="s">
-        <v>408</v>
+        <v>469</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
       <c r="O62" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6629,50 +7251,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>408</v>
+        <v>469</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>37755</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>124742</v>
+      </c>
+      <c r="C63" t="s">
+        <v>470</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>409</v>
+        <v>471</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>410</v>
+        <v>472</v>
       </c>
       <c r="J63" t="s">
-        <v>411</v>
+        <v>473</v>
       </c>
       <c r="K63" t="s">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="L63" t="s">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
       <c r="O63" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6686,50 +7312,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>413</v>
+        <v>475</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>37755</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>124743</v>
+      </c>
+      <c r="C64" t="s">
+        <v>476</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>414</v>
+        <v>477</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="J64" t="s">
-        <v>416</v>
+        <v>479</v>
       </c>
       <c r="K64" t="s">
-        <v>417</v>
+        <v>480</v>
       </c>
       <c r="L64" t="s">
-        <v>418</v>
+        <v>481</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
       <c r="O64" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6749,50 +7379,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>418</v>
+        <v>481</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>37755</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>124744</v>
+      </c>
+      <c r="C65" t="s">
+        <v>482</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>419</v>
+        <v>483</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>420</v>
+        <v>484</v>
       </c>
       <c r="J65" t="s">
-        <v>421</v>
+        <v>485</v>
       </c>
       <c r="K65" t="s">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="L65" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="O65" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6812,50 +7446,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>425</v>
+        <v>489</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>37755</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>124745</v>
+      </c>
+      <c r="C66" t="s">
+        <v>490</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>426</v>
+        <v>491</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>427</v>
+        <v>492</v>
       </c>
       <c r="J66" t="s">
-        <v>428</v>
+        <v>493</v>
       </c>
       <c r="K66" t="s">
-        <v>429</v>
+        <v>494</v>
       </c>
       <c r="L66" t="s">
-        <v>430</v>
+        <v>495</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="O66" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -6873,50 +7511,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>430</v>
+        <v>495</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>37755</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>124746</v>
+      </c>
+      <c r="C67" t="s">
+        <v>496</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="J67" t="s">
-        <v>433</v>
+        <v>499</v>
       </c>
       <c r="K67" t="s">
-        <v>434</v>
+        <v>500</v>
       </c>
       <c r="L67" t="s">
-        <v>435</v>
+        <v>501</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>436</v>
+        <v>502</v>
       </c>
       <c r="O67" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6936,50 +7578,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>37755</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>124747</v>
+      </c>
+      <c r="C68" t="s">
+        <v>504</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>438</v>
+        <v>505</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>439</v>
+        <v>506</v>
       </c>
       <c r="J68" t="s">
-        <v>440</v>
+        <v>507</v>
       </c>
       <c r="K68" t="s">
-        <v>441</v>
+        <v>508</v>
       </c>
       <c r="L68" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>443</v>
+        <v>510</v>
       </c>
       <c r="O68" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6997,41 +7643,45 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>444</v>
+        <v>511</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>37755</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>124748</v>
+      </c>
+      <c r="C69" t="s">
+        <v>512</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>445</v>
+        <v>513</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>446</v>
+        <v>514</v>
       </c>
       <c r="J69" t="s">
-        <v>447</v>
+        <v>515</v>
       </c>
       <c r="K69" t="s">
-        <v>448</v>
+        <v>516</v>
       </c>
       <c r="L69" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
@@ -7050,50 +7700,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>37755</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>124749</v>
+      </c>
+      <c r="C70" t="s">
+        <v>518</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>450</v>
+        <v>519</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>451</v>
+        <v>520</v>
       </c>
       <c r="J70" t="s">
-        <v>452</v>
+        <v>521</v>
       </c>
       <c r="K70" t="s">
-        <v>453</v>
+        <v>522</v>
       </c>
       <c r="L70" t="s">
-        <v>454</v>
+        <v>523</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>455</v>
+        <v>524</v>
       </c>
       <c r="O70" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -7107,50 +7761,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>456</v>
+        <v>525</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>37755</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>124750</v>
+      </c>
+      <c r="C71" t="s">
+        <v>526</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>457</v>
+        <v>527</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>458</v>
+        <v>528</v>
       </c>
       <c r="J71" t="s">
-        <v>459</v>
+        <v>529</v>
       </c>
       <c r="K71" t="s">
-        <v>460</v>
+        <v>530</v>
       </c>
       <c r="L71" t="s">
-        <v>461</v>
+        <v>531</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>462</v>
+        <v>532</v>
       </c>
       <c r="O71" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7164,50 +7822,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>461</v>
+        <v>531</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>37755</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>124751</v>
+      </c>
+      <c r="C72" t="s">
+        <v>533</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>463</v>
+        <v>534</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>464</v>
+        <v>535</v>
       </c>
       <c r="J72" t="s">
-        <v>465</v>
+        <v>536</v>
       </c>
       <c r="K72" t="s">
-        <v>466</v>
+        <v>537</v>
       </c>
       <c r="L72" t="s">
-        <v>467</v>
+        <v>538</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>462</v>
+        <v>532</v>
       </c>
       <c r="O72" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="n">
@@ -7225,50 +7887,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>467</v>
+        <v>538</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>37755</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>20116</v>
+      </c>
+      <c r="C73" t="s">
+        <v>539</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>468</v>
+        <v>540</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>469</v>
+        <v>541</v>
       </c>
       <c r="J73" t="s">
-        <v>470</v>
+        <v>542</v>
       </c>
       <c r="K73" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="L73" t="s">
-        <v>471</v>
+        <v>543</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>462</v>
+        <v>532</v>
       </c>
       <c r="O73" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7282,50 +7948,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>472</v>
+        <v>544</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>37755</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>124752</v>
+      </c>
+      <c r="C74" t="s">
+        <v>545</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>473</v>
+        <v>546</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>474</v>
+        <v>547</v>
       </c>
       <c r="J74" t="s">
-        <v>475</v>
+        <v>548</v>
       </c>
       <c r="K74" t="s">
-        <v>476</v>
+        <v>549</v>
       </c>
       <c r="L74" t="s">
-        <v>477</v>
+        <v>550</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>478</v>
+        <v>551</v>
       </c>
       <c r="O74" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="n">
@@ -7345,50 +8015,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>479</v>
+        <v>552</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>37755</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>124753</v>
+      </c>
+      <c r="C75" t="s">
+        <v>553</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>480</v>
+        <v>554</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="J75" t="s">
-        <v>482</v>
+        <v>556</v>
       </c>
       <c r="K75" t="s">
-        <v>483</v>
+        <v>557</v>
       </c>
       <c r="L75" t="s">
-        <v>484</v>
+        <v>558</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>485</v>
+        <v>559</v>
       </c>
       <c r="O75" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="n">
@@ -7408,41 +8082,45 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>484</v>
+        <v>558</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>37755</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>12406</v>
+      </c>
+      <c r="C76" t="s">
+        <v>560</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>486</v>
+        <v>561</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>487</v>
+        <v>562</v>
       </c>
       <c r="J76" t="s">
-        <v>488</v>
+        <v>563</v>
       </c>
       <c r="K76" t="s">
-        <v>489</v>
+        <v>564</v>
       </c>
       <c r="L76" t="s">
-        <v>490</v>
+        <v>565</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
@@ -7471,50 +8149,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>490</v>
+        <v>565</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>37755</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>23399</v>
+      </c>
+      <c r="C77" t="s">
+        <v>566</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>491</v>
+        <v>567</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>492</v>
+        <v>568</v>
       </c>
       <c r="J77" t="s">
-        <v>493</v>
+        <v>569</v>
       </c>
       <c r="K77" t="s">
-        <v>494</v>
+        <v>570</v>
       </c>
       <c r="L77" t="s">
-        <v>495</v>
+        <v>571</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>485</v>
+        <v>559</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="n">
@@ -7532,50 +8214,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>495</v>
+        <v>571</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>37755</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>12875</v>
+      </c>
+      <c r="C78" t="s">
+        <v>572</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>496</v>
+        <v>573</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>497</v>
+        <v>574</v>
       </c>
       <c r="J78" t="s">
-        <v>498</v>
+        <v>575</v>
       </c>
       <c r="K78" t="s">
-        <v>499</v>
+        <v>576</v>
       </c>
       <c r="L78" t="s">
-        <v>500</v>
+        <v>577</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>478</v>
+        <v>551</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -7595,50 +8281,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>501</v>
+        <v>578</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>37755</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>124754</v>
+      </c>
+      <c r="C79" t="s">
+        <v>579</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>502</v>
+        <v>580</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>503</v>
+        <v>581</v>
       </c>
       <c r="J79" t="s">
-        <v>504</v>
+        <v>582</v>
       </c>
       <c r="K79" t="s">
-        <v>505</v>
+        <v>583</v>
       </c>
       <c r="L79" t="s">
-        <v>506</v>
+        <v>584</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>478</v>
+        <v>551</v>
       </c>
       <c r="O79" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7656,50 +8346,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>506</v>
+        <v>584</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>37755</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>55697</v>
+      </c>
+      <c r="C80" t="s">
+        <v>585</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>507</v>
+        <v>586</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>508</v>
+        <v>587</v>
       </c>
       <c r="J80" t="s">
-        <v>509</v>
+        <v>588</v>
       </c>
       <c r="K80" t="s">
-        <v>510</v>
+        <v>589</v>
       </c>
       <c r="L80" t="s">
-        <v>511</v>
+        <v>590</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>512</v>
+        <v>591</v>
       </c>
       <c r="O80" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7719,50 +8413,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>513</v>
+        <v>592</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>37755</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>124755</v>
+      </c>
+      <c r="C81" t="s">
+        <v>593</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>514</v>
+        <v>594</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>515</v>
+        <v>595</v>
       </c>
       <c r="J81" t="s">
-        <v>516</v>
+        <v>596</v>
       </c>
       <c r="K81" t="s">
-        <v>517</v>
+        <v>597</v>
       </c>
       <c r="L81" t="s">
-        <v>518</v>
+        <v>598</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>519</v>
+        <v>599</v>
       </c>
       <c r="O81" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="n">
@@ -7780,50 +8478,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>520</v>
+        <v>600</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>37755</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>21805</v>
+      </c>
+      <c r="C82" t="s">
+        <v>601</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>521</v>
+        <v>602</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>522</v>
+        <v>603</v>
       </c>
       <c r="J82" t="s">
-        <v>523</v>
+        <v>604</v>
       </c>
       <c r="K82" t="s">
-        <v>524</v>
+        <v>605</v>
       </c>
       <c r="L82" t="s">
-        <v>525</v>
+        <v>606</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>526</v>
+        <v>607</v>
       </c>
       <c r="O82" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P82" t="s"/>
       <c r="Q82" t="n">
@@ -7843,41 +8545,45 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>527</v>
+        <v>608</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>37755</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>10626</v>
+      </c>
+      <c r="C83" t="s">
+        <v>609</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>528</v>
+        <v>610</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>529</v>
+        <v>611</v>
       </c>
       <c r="J83" t="s">
-        <v>530</v>
+        <v>612</v>
       </c>
       <c r="K83" t="s">
-        <v>531</v>
+        <v>613</v>
       </c>
       <c r="L83" t="s">
-        <v>532</v>
+        <v>614</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
@@ -7896,50 +8602,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>532</v>
+        <v>614</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>37755</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>124756</v>
+      </c>
+      <c r="C84" t="s">
+        <v>615</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>533</v>
+        <v>616</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>534</v>
+        <v>617</v>
       </c>
       <c r="J84" t="s">
-        <v>535</v>
+        <v>618</v>
       </c>
       <c r="K84" t="s">
-        <v>536</v>
+        <v>619</v>
       </c>
       <c r="L84" t="s">
-        <v>537</v>
+        <v>620</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>538</v>
+        <v>621</v>
       </c>
       <c r="O84" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="s"/>
@@ -7957,41 +8667,45 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>539</v>
+        <v>622</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>37755</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>124757</v>
+      </c>
+      <c r="C85" t="s">
+        <v>623</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>540</v>
+        <v>624</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>541</v>
+        <v>625</v>
       </c>
       <c r="J85" t="s">
-        <v>542</v>
+        <v>626</v>
       </c>
       <c r="K85" t="s">
-        <v>543</v>
+        <v>627</v>
       </c>
       <c r="L85" t="s">
-        <v>544</v>
+        <v>628</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
@@ -8020,50 +8734,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>544</v>
+        <v>628</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>37755</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>124758</v>
+      </c>
+      <c r="C86" t="s">
+        <v>629</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>545</v>
+        <v>630</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>546</v>
+        <v>631</v>
       </c>
       <c r="J86" t="s">
-        <v>547</v>
+        <v>632</v>
       </c>
       <c r="K86" t="s">
-        <v>548</v>
+        <v>633</v>
       </c>
       <c r="L86" t="s">
-        <v>549</v>
+        <v>634</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>550</v>
+        <v>635</v>
       </c>
       <c r="O86" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -8083,50 +8801,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>549</v>
+        <v>634</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>37755</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>87411</v>
+      </c>
+      <c r="C87" t="s">
+        <v>636</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>551</v>
+        <v>637</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>552</v>
+        <v>638</v>
       </c>
       <c r="J87" t="s">
-        <v>553</v>
+        <v>639</v>
       </c>
       <c r="K87" t="s">
-        <v>554</v>
+        <v>640</v>
       </c>
       <c r="L87" t="s">
-        <v>555</v>
+        <v>641</v>
       </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
       <c r="N87" t="s">
-        <v>556</v>
+        <v>642</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>1</v>
@@ -8144,50 +8866,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>557</v>
+        <v>643</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>37755</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>124759</v>
+      </c>
+      <c r="C88" t="s">
+        <v>644</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>558</v>
+        <v>645</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>559</v>
+        <v>646</v>
       </c>
       <c r="J88" t="s">
-        <v>560</v>
+        <v>647</v>
       </c>
       <c r="K88" t="s">
-        <v>561</v>
+        <v>648</v>
       </c>
       <c r="L88" t="s">
-        <v>562</v>
+        <v>649</v>
       </c>
       <c r="M88" t="n">
         <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>563</v>
+        <v>650</v>
       </c>
       <c r="O88" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -8211,50 +8937,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>564</v>
+        <v>651</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>37755</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>124760</v>
+      </c>
+      <c r="C89" t="s">
+        <v>652</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>565</v>
+        <v>653</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>566</v>
+        <v>654</v>
       </c>
       <c r="J89" t="s">
-        <v>567</v>
+        <v>655</v>
       </c>
       <c r="K89" t="s">
-        <v>568</v>
+        <v>656</v>
       </c>
       <c r="L89" t="s">
-        <v>569</v>
+        <v>657</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>550</v>
+        <v>635</v>
       </c>
       <c r="O89" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -8278,50 +9008,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>569</v>
+        <v>657</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>37755</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>19006</v>
+      </c>
+      <c r="C90" t="s">
+        <v>658</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>570</v>
+        <v>659</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>571</v>
+        <v>660</v>
       </c>
       <c r="J90" t="s">
-        <v>572</v>
+        <v>661</v>
       </c>
       <c r="K90" t="s">
-        <v>573</v>
+        <v>662</v>
       </c>
       <c r="L90" t="s">
-        <v>574</v>
+        <v>663</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>556</v>
+        <v>642</v>
       </c>
       <c r="O90" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -8345,50 +9079,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>575</v>
+        <v>664</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>37755</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>124761</v>
+      </c>
+      <c r="C91" t="s">
+        <v>665</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>576</v>
+        <v>666</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>577</v>
+        <v>667</v>
       </c>
       <c r="J91" t="s">
-        <v>578</v>
+        <v>668</v>
       </c>
       <c r="K91" t="s">
-        <v>579</v>
+        <v>669</v>
       </c>
       <c r="L91" t="s">
-        <v>580</v>
+        <v>670</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>581</v>
+        <v>671</v>
       </c>
       <c r="O91" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -8412,50 +9150,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>580</v>
+        <v>670</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>37755</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>15231</v>
+      </c>
+      <c r="C92" t="s">
+        <v>672</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>582</v>
+        <v>673</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>583</v>
+        <v>674</v>
       </c>
       <c r="J92" t="s">
-        <v>584</v>
+        <v>675</v>
       </c>
       <c r="K92" t="s">
-        <v>585</v>
+        <v>676</v>
       </c>
       <c r="L92" t="s">
-        <v>586</v>
+        <v>677</v>
       </c>
       <c r="M92" t="n">
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>581</v>
+        <v>671</v>
       </c>
       <c r="O92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P92" t="n">
         <v>2</v>
@@ -8479,50 +9221,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>587</v>
+        <v>678</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>37755</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>124762</v>
+      </c>
+      <c r="C93" t="s">
+        <v>679</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>588</v>
+        <v>680</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>589</v>
+        <v>681</v>
       </c>
       <c r="J93" t="s">
-        <v>590</v>
+        <v>682</v>
       </c>
       <c r="K93" t="s">
-        <v>591</v>
+        <v>683</v>
       </c>
       <c r="L93" t="s">
-        <v>592</v>
+        <v>684</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>593</v>
+        <v>685</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="s"/>
       <c r="Q93" t="s"/>
@@ -8536,50 +9282,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>594</v>
+        <v>686</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>37755</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>124763</v>
+      </c>
+      <c r="C94" t="s">
+        <v>687</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>595</v>
+        <v>688</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>596</v>
+        <v>689</v>
       </c>
       <c r="J94" t="s">
-        <v>597</v>
+        <v>690</v>
       </c>
       <c r="K94" t="s">
-        <v>598</v>
+        <v>691</v>
       </c>
       <c r="L94" t="s">
-        <v>599</v>
+        <v>692</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>600</v>
+        <v>693</v>
       </c>
       <c r="O94" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8603,50 +9353,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>601</v>
+        <v>694</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>37755</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>124764</v>
+      </c>
+      <c r="C95" t="s">
+        <v>695</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>602</v>
+        <v>696</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>603</v>
+        <v>697</v>
       </c>
       <c r="J95" t="s">
-        <v>604</v>
+        <v>698</v>
       </c>
       <c r="K95" t="s">
-        <v>605</v>
+        <v>699</v>
       </c>
       <c r="L95" t="s">
-        <v>606</v>
+        <v>700</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>607</v>
+        <v>701</v>
       </c>
       <c r="O95" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8670,50 +9424,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>606</v>
+        <v>700</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>37755</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>124765</v>
+      </c>
+      <c r="C96" t="s">
+        <v>702</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>608</v>
+        <v>703</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>609</v>
+        <v>704</v>
       </c>
       <c r="J96" t="s">
-        <v>610</v>
+        <v>705</v>
       </c>
       <c r="K96" t="s">
-        <v>611</v>
+        <v>706</v>
       </c>
       <c r="L96" t="s">
-        <v>612</v>
+        <v>707</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>613</v>
+        <v>708</v>
       </c>
       <c r="O96" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -8737,50 +9495,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>612</v>
+        <v>707</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>37755</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>6369</v>
+      </c>
+      <c r="C97" t="s">
+        <v>709</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>614</v>
+        <v>710</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>615</v>
+        <v>711</v>
       </c>
       <c r="J97" t="s">
-        <v>616</v>
+        <v>712</v>
       </c>
       <c r="K97" t="s">
-        <v>617</v>
+        <v>713</v>
       </c>
       <c r="L97" t="s">
-        <v>618</v>
+        <v>714</v>
       </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
       <c r="N97" t="s">
-        <v>613</v>
+        <v>708</v>
       </c>
       <c r="O97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P97" t="n">
         <v>1</v>
@@ -8802,50 +9564,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>619</v>
+        <v>715</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>37755</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>38755</v>
+      </c>
+      <c r="C98" t="s">
+        <v>716</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>620</v>
+        <v>717</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>621</v>
+        <v>718</v>
       </c>
       <c r="J98" t="s">
-        <v>622</v>
+        <v>719</v>
       </c>
       <c r="K98" t="s">
-        <v>623</v>
+        <v>720</v>
       </c>
       <c r="L98" t="s">
-        <v>624</v>
+        <v>721</v>
       </c>
       <c r="M98" t="n">
         <v>3</v>
       </c>
       <c r="N98" t="s">
-        <v>625</v>
+        <v>722</v>
       </c>
       <c r="O98" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P98" t="n">
         <v>3</v>
@@ -8869,41 +9635,45 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>624</v>
+        <v>721</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>37755</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>124766</v>
+      </c>
+      <c r="C99" t="s">
+        <v>723</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>626</v>
+        <v>724</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>627</v>
+        <v>725</v>
       </c>
       <c r="J99" t="s">
-        <v>628</v>
+        <v>726</v>
       </c>
       <c r="K99" t="s">
-        <v>629</v>
+        <v>727</v>
       </c>
       <c r="L99" t="s">
-        <v>630</v>
+        <v>728</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
@@ -8932,50 +9702,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>630</v>
+        <v>728</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>37755</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>124767</v>
+      </c>
+      <c r="C100" t="s">
+        <v>729</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>631</v>
+        <v>730</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>632</v>
+        <v>731</v>
       </c>
       <c r="J100" t="s">
-        <v>633</v>
+        <v>732</v>
       </c>
       <c r="K100" t="s">
-        <v>634</v>
+        <v>733</v>
       </c>
       <c r="L100" t="s">
-        <v>635</v>
+        <v>734</v>
       </c>
       <c r="M100" t="n">
         <v>3</v>
       </c>
       <c r="N100" t="s">
-        <v>636</v>
+        <v>735</v>
       </c>
       <c r="O100" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P100" t="n">
         <v>3</v>
@@ -8999,50 +9773,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>635</v>
+        <v>734</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>37755</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>124768</v>
+      </c>
+      <c r="C101" t="s">
+        <v>736</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>637</v>
+        <v>737</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>638</v>
+        <v>738</v>
       </c>
       <c r="J101" t="s">
-        <v>639</v>
+        <v>739</v>
       </c>
       <c r="K101" t="s">
-        <v>640</v>
+        <v>740</v>
       </c>
       <c r="L101" t="s">
-        <v>641</v>
+        <v>741</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>642</v>
+        <v>742</v>
       </c>
       <c r="O101" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9066,50 +9844,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>641</v>
+        <v>741</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>37755</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>124769</v>
+      </c>
+      <c r="C102" t="s">
+        <v>743</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>643</v>
+        <v>744</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>644</v>
+        <v>745</v>
       </c>
       <c r="J102" t="s">
-        <v>645</v>
+        <v>746</v>
       </c>
       <c r="K102" t="s">
-        <v>646</v>
+        <v>747</v>
       </c>
       <c r="L102" t="s">
-        <v>647</v>
+        <v>748</v>
       </c>
       <c r="M102" t="n">
         <v>3</v>
       </c>
       <c r="N102" t="s">
-        <v>642</v>
+        <v>742</v>
       </c>
       <c r="O102" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="P102" t="n">
         <v>3</v>
@@ -9133,50 +9915,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>648</v>
+        <v>749</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>37755</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>124770</v>
+      </c>
+      <c r="C103" t="s">
+        <v>750</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>649</v>
+        <v>751</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>650</v>
+        <v>752</v>
       </c>
       <c r="J103" t="s">
-        <v>651</v>
+        <v>753</v>
       </c>
       <c r="K103" t="s">
-        <v>652</v>
+        <v>754</v>
       </c>
       <c r="L103" t="s">
-        <v>653</v>
+        <v>755</v>
       </c>
       <c r="M103" t="n">
         <v>3</v>
       </c>
       <c r="N103" t="s">
-        <v>654</v>
+        <v>756</v>
       </c>
       <c r="O103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -9200,50 +9986,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>655</v>
+        <v>757</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>37755</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>10312</v>
+      </c>
+      <c r="C104" t="s">
+        <v>758</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>656</v>
+        <v>759</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>657</v>
+        <v>760</v>
       </c>
       <c r="J104" t="s">
-        <v>658</v>
+        <v>761</v>
       </c>
       <c r="K104" t="s">
-        <v>659</v>
+        <v>762</v>
       </c>
       <c r="L104" t="s">
-        <v>660</v>
+        <v>763</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>661</v>
+        <v>764</v>
       </c>
       <c r="O104" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9267,50 +10057,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>662</v>
+        <v>765</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>37755</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>124771</v>
+      </c>
+      <c r="C105" t="s">
+        <v>766</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>663</v>
+        <v>767</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>664</v>
+        <v>768</v>
       </c>
       <c r="J105" t="s">
-        <v>665</v>
+        <v>769</v>
       </c>
       <c r="K105" t="s">
-        <v>666</v>
+        <v>770</v>
       </c>
       <c r="L105" t="s">
-        <v>667</v>
+        <v>771</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
       </c>
       <c r="N105" t="s">
-        <v>668</v>
+        <v>772</v>
       </c>
       <c r="O105" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9332,56 +10126,60 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>669</v>
+        <v>773</v>
       </c>
       <c r="X105" t="s">
-        <v>670</v>
+        <v>774</v>
       </c>
       <c r="Y105" t="s">
-        <v>671</v>
+        <v>775</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>37755</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>1099</v>
+      </c>
+      <c r="C106" t="s">
+        <v>776</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>672</v>
+        <v>777</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>673</v>
+        <v>778</v>
       </c>
       <c r="J106" t="s">
-        <v>674</v>
+        <v>779</v>
       </c>
       <c r="K106" t="s">
-        <v>675</v>
+        <v>780</v>
       </c>
       <c r="L106" t="s">
-        <v>676</v>
+        <v>781</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>668</v>
+        <v>772</v>
       </c>
       <c r="O106" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -9403,56 +10201,60 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>677</v>
+        <v>782</v>
       </c>
       <c r="X106" t="s">
-        <v>670</v>
+        <v>774</v>
       </c>
       <c r="Y106" t="s">
-        <v>678</v>
+        <v>783</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>37755</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>124772</v>
+      </c>
+      <c r="C107" t="s">
+        <v>784</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>679</v>
+        <v>785</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>680</v>
+        <v>786</v>
       </c>
       <c r="J107" t="s">
-        <v>681</v>
+        <v>787</v>
       </c>
       <c r="K107" t="s">
-        <v>682</v>
+        <v>788</v>
       </c>
       <c r="L107" t="s">
-        <v>683</v>
+        <v>789</v>
       </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
       <c r="N107" t="s">
-        <v>684</v>
+        <v>790</v>
       </c>
       <c r="O107" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P107" t="n">
         <v>1</v>
@@ -9474,56 +10276,60 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>677</v>
+        <v>782</v>
       </c>
       <c r="X107" t="s">
-        <v>670</v>
+        <v>774</v>
       </c>
       <c r="Y107" t="s">
-        <v>685</v>
+        <v>791</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>37755</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>124773</v>
+      </c>
+      <c r="C108" t="s">
+        <v>792</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>686</v>
+        <v>793</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>687</v>
+        <v>794</v>
       </c>
       <c r="J108" t="s">
-        <v>688</v>
+        <v>795</v>
       </c>
       <c r="K108" t="s">
-        <v>689</v>
+        <v>796</v>
       </c>
       <c r="L108" t="s">
-        <v>690</v>
+        <v>797</v>
       </c>
       <c r="M108" t="n">
         <v>3</v>
       </c>
       <c r="N108" t="s">
-        <v>684</v>
+        <v>790</v>
       </c>
       <c r="O108" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P108" t="n">
         <v>4</v>
@@ -9545,56 +10351,60 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>677</v>
+        <v>782</v>
       </c>
       <c r="X108" t="s">
-        <v>670</v>
+        <v>774</v>
       </c>
       <c r="Y108" t="s">
-        <v>691</v>
+        <v>798</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>37755</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>124774</v>
+      </c>
+      <c r="C109" t="s">
+        <v>799</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>692</v>
+        <v>800</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>693</v>
+        <v>801</v>
       </c>
       <c r="J109" t="s">
-        <v>694</v>
+        <v>802</v>
       </c>
       <c r="K109" t="s">
-        <v>695</v>
+        <v>803</v>
       </c>
       <c r="L109" t="s">
-        <v>696</v>
+        <v>804</v>
       </c>
       <c r="M109" t="n">
         <v>4</v>
       </c>
       <c r="N109" t="s">
-        <v>697</v>
+        <v>805</v>
       </c>
       <c r="O109" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -9618,50 +10428,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>698</v>
+        <v>806</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>37755</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>124775</v>
+      </c>
+      <c r="C110" t="s">
+        <v>807</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>699</v>
+        <v>808</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>700</v>
+        <v>809</v>
       </c>
       <c r="J110" t="s">
-        <v>701</v>
+        <v>810</v>
       </c>
       <c r="K110" t="s">
-        <v>702</v>
+        <v>811</v>
       </c>
       <c r="L110" t="s">
-        <v>703</v>
+        <v>812</v>
       </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
       <c r="N110" t="s">
-        <v>704</v>
+        <v>813</v>
       </c>
       <c r="O110" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P110" t="n">
         <v>1</v>
@@ -9683,56 +10497,60 @@
         <v>0</v>
       </c>
       <c r="W110" t="s">
-        <v>705</v>
+        <v>814</v>
       </c>
       <c r="X110" t="s">
-        <v>706</v>
+        <v>815</v>
       </c>
       <c r="Y110" t="s">
-        <v>707</v>
+        <v>816</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>37755</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>8324</v>
+      </c>
+      <c r="C111" t="s">
+        <v>817</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>708</v>
+        <v>818</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>709</v>
+        <v>819</v>
       </c>
       <c r="J111" t="s">
-        <v>710</v>
+        <v>820</v>
       </c>
       <c r="K111" t="s">
-        <v>711</v>
+        <v>821</v>
       </c>
       <c r="L111" t="s">
-        <v>712</v>
+        <v>822</v>
       </c>
       <c r="M111" t="n">
         <v>5</v>
       </c>
       <c r="N111" t="s">
-        <v>704</v>
+        <v>813</v>
       </c>
       <c r="O111" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -9754,56 +10572,60 @@
         <v>0</v>
       </c>
       <c r="W111" t="s">
-        <v>705</v>
+        <v>814</v>
       </c>
       <c r="X111" t="s">
-        <v>706</v>
+        <v>815</v>
       </c>
       <c r="Y111" t="s">
-        <v>713</v>
+        <v>823</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>37755</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>124776</v>
+      </c>
+      <c r="C112" t="s">
+        <v>824</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>714</v>
+        <v>825</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>715</v>
+        <v>826</v>
       </c>
       <c r="J112" t="s">
-        <v>716</v>
+        <v>827</v>
       </c>
       <c r="K112" t="s">
-        <v>717</v>
+        <v>828</v>
       </c>
       <c r="L112" t="s">
-        <v>718</v>
+        <v>829</v>
       </c>
       <c r="M112" t="n">
         <v>4</v>
       </c>
       <c r="N112" t="s">
-        <v>719</v>
+        <v>830</v>
       </c>
       <c r="O112" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P112" t="n">
         <v>5</v>
@@ -9825,56 +10647,60 @@
         <v>0</v>
       </c>
       <c r="W112" t="s">
-        <v>720</v>
+        <v>831</v>
       </c>
       <c r="X112" t="s">
-        <v>706</v>
+        <v>815</v>
       </c>
       <c r="Y112" t="s">
-        <v>721</v>
+        <v>832</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>37755</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>124777</v>
+      </c>
+      <c r="C113" t="s">
+        <v>833</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>722</v>
+        <v>834</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>723</v>
+        <v>835</v>
       </c>
       <c r="J113" t="s">
-        <v>724</v>
+        <v>836</v>
       </c>
       <c r="K113" t="s">
-        <v>725</v>
+        <v>837</v>
       </c>
       <c r="L113" t="s">
-        <v>726</v>
+        <v>838</v>
       </c>
       <c r="M113" t="n">
         <v>2</v>
       </c>
       <c r="N113" t="s">
-        <v>727</v>
+        <v>839</v>
       </c>
       <c r="O113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P113" t="n">
         <v>2</v>
@@ -9896,56 +10722,60 @@
         <v>0</v>
       </c>
       <c r="W113" t="s">
-        <v>720</v>
+        <v>831</v>
       </c>
       <c r="X113" t="s">
-        <v>706</v>
+        <v>815</v>
       </c>
       <c r="Y113" t="s">
-        <v>728</v>
+        <v>840</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>37755</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>124778</v>
+      </c>
+      <c r="C114" t="s">
+        <v>841</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>729</v>
+        <v>842</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>730</v>
+        <v>843</v>
       </c>
       <c r="J114" t="s">
-        <v>731</v>
+        <v>844</v>
       </c>
       <c r="K114" t="s">
-        <v>732</v>
+        <v>845</v>
       </c>
       <c r="L114" t="s">
-        <v>733</v>
+        <v>846</v>
       </c>
       <c r="M114" t="n">
         <v>4</v>
       </c>
       <c r="N114" t="s">
-        <v>734</v>
+        <v>847</v>
       </c>
       <c r="O114" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P114" t="n">
         <v>3</v>
@@ -9967,56 +10797,60 @@
         <v>0</v>
       </c>
       <c r="W114" t="s">
-        <v>720</v>
+        <v>831</v>
       </c>
       <c r="X114" t="s">
-        <v>706</v>
+        <v>815</v>
       </c>
       <c r="Y114" t="s">
-        <v>735</v>
+        <v>848</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>37755</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>124779</v>
+      </c>
+      <c r="C115" t="s">
+        <v>849</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>736</v>
+        <v>850</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>737</v>
+        <v>851</v>
       </c>
       <c r="J115" t="s">
-        <v>738</v>
+        <v>852</v>
       </c>
       <c r="K115" t="s">
-        <v>739</v>
+        <v>853</v>
       </c>
       <c r="L115" t="s">
-        <v>740</v>
+        <v>854</v>
       </c>
       <c r="M115" t="n">
         <v>4</v>
       </c>
       <c r="N115" t="s">
-        <v>741</v>
+        <v>855</v>
       </c>
       <c r="O115" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P115" t="n">
         <v>4</v>
@@ -10036,50 +10870,54 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>740</v>
+        <v>854</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>37755</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>124780</v>
+      </c>
+      <c r="C116" t="s">
+        <v>856</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>742</v>
+        <v>857</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>743</v>
+        <v>858</v>
       </c>
       <c r="J116" t="s">
-        <v>744</v>
+        <v>859</v>
       </c>
       <c r="K116" t="s">
-        <v>745</v>
+        <v>860</v>
       </c>
       <c r="L116" t="s">
-        <v>746</v>
+        <v>861</v>
       </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
       <c r="N116" t="s">
-        <v>747</v>
+        <v>862</v>
       </c>
       <c r="O116" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P116" t="s"/>
       <c r="Q116" t="s"/>
@@ -10093,50 +10931,54 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>748</v>
+        <v>863</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>37755</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>124781</v>
+      </c>
+      <c r="C117" t="s">
+        <v>864</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>749</v>
+        <v>865</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>750</v>
+        <v>866</v>
       </c>
       <c r="J117" t="s">
-        <v>751</v>
+        <v>867</v>
       </c>
       <c r="K117" t="s">
-        <v>752</v>
+        <v>868</v>
       </c>
       <c r="L117" t="s">
-        <v>753</v>
+        <v>869</v>
       </c>
       <c r="M117" t="n">
         <v>3</v>
       </c>
       <c r="N117" t="s">
-        <v>754</v>
+        <v>870</v>
       </c>
       <c r="O117" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P117" t="n">
         <v>4</v>
@@ -10160,50 +11002,54 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>753</v>
+        <v>869</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>37755</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>124782</v>
+      </c>
+      <c r="C118" t="s">
+        <v>871</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>755</v>
+        <v>872</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>756</v>
+        <v>873</v>
       </c>
       <c r="J118" t="s">
-        <v>757</v>
+        <v>874</v>
       </c>
       <c r="K118" t="s">
-        <v>758</v>
+        <v>875</v>
       </c>
       <c r="L118" t="s">
-        <v>759</v>
+        <v>876</v>
       </c>
       <c r="M118" t="n">
         <v>3</v>
       </c>
       <c r="N118" t="s">
-        <v>760</v>
+        <v>877</v>
       </c>
       <c r="O118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P118" t="n">
         <v>3</v>
@@ -10227,50 +11073,54 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>759</v>
+        <v>876</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>37755</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>124783</v>
+      </c>
+      <c r="C119" t="s">
+        <v>878</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>761</v>
+        <v>879</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>762</v>
+        <v>880</v>
       </c>
       <c r="J119" t="s">
-        <v>763</v>
+        <v>881</v>
       </c>
       <c r="K119" t="s">
-        <v>764</v>
+        <v>882</v>
       </c>
       <c r="L119" t="s">
-        <v>765</v>
+        <v>883</v>
       </c>
       <c r="M119" t="n">
         <v>4</v>
       </c>
       <c r="N119" t="s">
-        <v>766</v>
+        <v>884</v>
       </c>
       <c r="O119" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P119" t="n">
         <v>5</v>
@@ -10294,50 +11144,54 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>767</v>
+        <v>885</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>37755</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>124784</v>
+      </c>
+      <c r="C120" t="s">
+        <v>886</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>768</v>
+        <v>887</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>769</v>
+        <v>888</v>
       </c>
       <c r="J120" t="s">
-        <v>770</v>
+        <v>889</v>
       </c>
       <c r="K120" t="s">
-        <v>771</v>
+        <v>890</v>
       </c>
       <c r="L120" t="s">
-        <v>772</v>
+        <v>891</v>
       </c>
       <c r="M120" t="n">
         <v>4</v>
       </c>
       <c r="N120" t="s">
-        <v>773</v>
+        <v>892</v>
       </c>
       <c r="O120" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P120" t="n">
         <v>5</v>
@@ -10361,50 +11215,54 @@
       <c r="W120" t="s"/>
       <c r="X120" t="s"/>
       <c r="Y120" t="s">
-        <v>772</v>
+        <v>891</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>37755</v>
       </c>
-      <c r="B121" t="s"/>
-      <c r="C121" t="s"/>
+      <c r="B121" t="n">
+        <v>124785</v>
+      </c>
+      <c r="C121" t="s">
+        <v>893</v>
+      </c>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>774</v>
+        <v>894</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I121" t="s">
-        <v>775</v>
+        <v>895</v>
       </c>
       <c r="J121" t="s">
-        <v>776</v>
+        <v>896</v>
       </c>
       <c r="K121" t="s">
-        <v>777</v>
+        <v>897</v>
       </c>
       <c r="L121" t="s">
-        <v>778</v>
+        <v>898</v>
       </c>
       <c r="M121" t="n">
         <v>5</v>
       </c>
       <c r="N121" t="s">
-        <v>779</v>
+        <v>899</v>
       </c>
       <c r="O121" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P121" t="n">
         <v>5</v>
@@ -10428,50 +11286,54 @@
       <c r="W121" t="s"/>
       <c r="X121" t="s"/>
       <c r="Y121" t="s">
-        <v>778</v>
+        <v>898</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>37755</v>
       </c>
-      <c r="B122" t="s"/>
-      <c r="C122" t="s"/>
+      <c r="B122" t="n">
+        <v>124786</v>
+      </c>
+      <c r="C122" t="s">
+        <v>900</v>
+      </c>
       <c r="D122" t="n">
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>780</v>
+        <v>901</v>
       </c>
       <c r="G122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I122" t="s">
-        <v>781</v>
+        <v>902</v>
       </c>
       <c r="J122" t="s">
-        <v>782</v>
+        <v>903</v>
       </c>
       <c r="K122" t="s">
-        <v>783</v>
+        <v>904</v>
       </c>
       <c r="L122" t="s">
-        <v>784</v>
+        <v>905</v>
       </c>
       <c r="M122" t="n">
         <v>4</v>
       </c>
       <c r="N122" t="s">
-        <v>785</v>
+        <v>906</v>
       </c>
       <c r="O122" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P122" t="n">
         <v>4</v>
@@ -10495,50 +11357,54 @@
       <c r="W122" t="s"/>
       <c r="X122" t="s"/>
       <c r="Y122" t="s">
-        <v>786</v>
+        <v>907</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
         <v>37755</v>
       </c>
-      <c r="B123" t="s"/>
-      <c r="C123" t="s"/>
+      <c r="B123" t="n">
+        <v>124787</v>
+      </c>
+      <c r="C123" t="s">
+        <v>908</v>
+      </c>
       <c r="D123" t="n">
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>787</v>
+        <v>909</v>
       </c>
       <c r="G123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I123" t="s">
-        <v>788</v>
+        <v>910</v>
       </c>
       <c r="J123" t="s">
-        <v>789</v>
+        <v>911</v>
       </c>
       <c r="K123" t="s">
-        <v>790</v>
+        <v>912</v>
       </c>
       <c r="L123" t="s">
-        <v>791</v>
+        <v>913</v>
       </c>
       <c r="M123" t="n">
         <v>4</v>
       </c>
       <c r="N123" t="s">
-        <v>792</v>
+        <v>914</v>
       </c>
       <c r="O123" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P123" t="n">
         <v>5</v>
@@ -10562,50 +11428,54 @@
       <c r="W123" t="s"/>
       <c r="X123" t="s"/>
       <c r="Y123" t="s">
-        <v>793</v>
+        <v>915</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
         <v>37755</v>
       </c>
-      <c r="B124" t="s"/>
-      <c r="C124" t="s"/>
+      <c r="B124" t="n">
+        <v>38104</v>
+      </c>
+      <c r="C124" t="s">
+        <v>916</v>
+      </c>
       <c r="D124" t="n">
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F124" t="s">
-        <v>794</v>
+        <v>917</v>
       </c>
       <c r="G124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I124" t="s">
-        <v>795</v>
+        <v>918</v>
       </c>
       <c r="J124" t="s">
-        <v>796</v>
+        <v>919</v>
       </c>
       <c r="K124" t="s">
-        <v>797</v>
+        <v>920</v>
       </c>
       <c r="L124" t="s">
-        <v>798</v>
+        <v>921</v>
       </c>
       <c r="M124" t="n">
         <v>5</v>
       </c>
       <c r="N124" t="s">
-        <v>799</v>
+        <v>922</v>
       </c>
       <c r="O124" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P124" t="n">
         <v>5</v>
@@ -10629,50 +11499,54 @@
       <c r="W124" t="s"/>
       <c r="X124" t="s"/>
       <c r="Y124" t="s">
-        <v>800</v>
+        <v>923</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
         <v>37755</v>
       </c>
-      <c r="B125" t="s"/>
-      <c r="C125" t="s"/>
+      <c r="B125" t="n">
+        <v>124788</v>
+      </c>
+      <c r="C125" t="s">
+        <v>924</v>
+      </c>
       <c r="D125" t="n">
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F125" t="s">
-        <v>801</v>
+        <v>925</v>
       </c>
       <c r="G125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I125" t="s">
-        <v>802</v>
+        <v>926</v>
       </c>
       <c r="J125" t="s">
-        <v>803</v>
+        <v>927</v>
       </c>
       <c r="K125" t="s">
-        <v>804</v>
+        <v>928</v>
       </c>
       <c r="L125" t="s">
-        <v>805</v>
+        <v>929</v>
       </c>
       <c r="M125" t="n">
         <v>4</v>
       </c>
       <c r="N125" t="s">
-        <v>806</v>
+        <v>930</v>
       </c>
       <c r="O125" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P125" t="n">
         <v>4</v>
@@ -10696,50 +11570,54 @@
       <c r="W125" t="s"/>
       <c r="X125" t="s"/>
       <c r="Y125" t="s">
-        <v>805</v>
+        <v>929</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
         <v>37755</v>
       </c>
-      <c r="B126" t="s"/>
-      <c r="C126" t="s"/>
+      <c r="B126" t="n">
+        <v>124789</v>
+      </c>
+      <c r="C126" t="s">
+        <v>931</v>
+      </c>
       <c r="D126" t="n">
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F126" t="s">
-        <v>807</v>
+        <v>932</v>
       </c>
       <c r="G126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I126" t="s">
-        <v>808</v>
+        <v>933</v>
       </c>
       <c r="J126" t="s">
-        <v>809</v>
+        <v>934</v>
       </c>
       <c r="K126" t="s">
-        <v>810</v>
+        <v>935</v>
       </c>
       <c r="L126" t="s">
-        <v>811</v>
+        <v>936</v>
       </c>
       <c r="M126" t="n">
         <v>3</v>
       </c>
       <c r="N126" t="s">
-        <v>812</v>
+        <v>937</v>
       </c>
       <c r="O126" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P126" t="n">
         <v>3</v>
@@ -10763,41 +11641,45 @@
       <c r="W126" t="s"/>
       <c r="X126" t="s"/>
       <c r="Y126" t="s">
-        <v>811</v>
+        <v>936</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
         <v>37755</v>
       </c>
-      <c r="B127" t="s"/>
-      <c r="C127" t="s"/>
+      <c r="B127" t="n">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>938</v>
+      </c>
       <c r="D127" t="n">
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F127" t="s">
-        <v>813</v>
+        <v>939</v>
       </c>
       <c r="G127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I127" t="s">
-        <v>814</v>
+        <v>940</v>
       </c>
       <c r="J127" t="s">
-        <v>815</v>
+        <v>941</v>
       </c>
       <c r="K127" t="s">
-        <v>816</v>
+        <v>942</v>
       </c>
       <c r="L127" t="s">
-        <v>817</v>
+        <v>943</v>
       </c>
       <c r="M127" t="n">
         <v>4</v>
@@ -10824,41 +11706,45 @@
       <c r="W127" t="s"/>
       <c r="X127" t="s"/>
       <c r="Y127" t="s">
-        <v>817</v>
+        <v>943</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
         <v>37755</v>
       </c>
-      <c r="B128" t="s"/>
-      <c r="C128" t="s"/>
+      <c r="B128" t="n">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>938</v>
+      </c>
       <c r="D128" t="n">
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F128" t="s">
-        <v>818</v>
+        <v>944</v>
       </c>
       <c r="G128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I128" t="s">
-        <v>819</v>
+        <v>945</v>
       </c>
       <c r="J128" t="s">
-        <v>820</v>
+        <v>946</v>
       </c>
       <c r="K128" t="s">
-        <v>821</v>
+        <v>947</v>
       </c>
       <c r="L128" t="s">
-        <v>822</v>
+        <v>948</v>
       </c>
       <c r="M128" t="n">
         <v>5</v>
@@ -10877,7 +11763,7 @@
       <c r="W128" t="s"/>
       <c r="X128" t="s"/>
       <c r="Y128" t="s">
-        <v>822</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>
